--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -434,3616 +434,3618 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>15180.15080159439</v>
+        <v>14557.37006470027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>18.28825126871091</v>
+        <v>17.53795762864798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>18.58530193491972</v>
+        <v>17.82282149676668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>18.88889356319838</v>
+        <v>18.11395797750133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>19.19925135836433</v>
+        <v>18.41158303641844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>19.51660966890487</v>
+        <v>18.71592140762629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>19.84121226112648</v>
+        <v>19.02720685667694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>20.17331259134986</v>
+        <v>19.34568244159426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>20.51317407523215</v>
+        <v>19.67160077114689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>20.86107035297356</v>
+        <v>20.00522425917452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>21.21728554957377</v>
+        <v>20.34682537416705</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>21.5821145290246</v>
+        <v>20.69668688302866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>21.95586314098575</v>
+        <v>21.05510208763355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>22.33884845909131</v>
+        <v>21.4223750533556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>22.73139900920589</v>
+        <v>21.79882082796012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>23.13385498663363</v>
+        <v>22.1847656499016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>23.54656846056314</v>
+        <v>22.58054714438116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>23.9699035644936</v>
+        <v>22.98651450596012</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24.4042366710928</v>
+        <v>23.40302866624444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24.8499565497853</v>
+        <v>23.83046244500759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>25.30746450575275</v>
+        <v>24.26920068348829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>25.77717449839214</v>
+        <v>24.71964035798883</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>26.25951323774899</v>
+        <v>25.18219067235205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>26.75492025722352</v>
+        <v>25.65727312768467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>27.26384796061346</v>
+        <v>26.14532156747009</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>27.78676164200158</v>
+        <v>26.64678219663999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>28.32413947647665</v>
+        <v>27.16211357267608</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>28.87647248000684</v>
+        <v>27.69178656712958</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>29.44426443672432</v>
+        <v>28.2362842958892</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>30.02803179164891</v>
+        <v>28.79610201630578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>30.62830350725071</v>
+        <v>29.37174698963965</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>31.2456208820086</v>
+        <v>29.96373830706293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>31.88053732919632</v>
+        <v>30.57260667752112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>32.53361811428139</v>
+        <v>31.19889417590551</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>33.20544004916844</v>
+        <v>31.84315394984046</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>33.89659114181619</v>
+        <v>32.50594988367523</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>34.60767019948999</v>
+        <v>33.18785621801339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>35.33928638442197</v>
+        <v>33.88945712360258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>36.09205872030904</v>
+        <v>34.6113462280788</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>36.86661554843873</v>
+        <v>35.3541260944053</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>37.66359393214024</v>
+        <v>36.11840764975658</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>38.48363900879209</v>
+        <v>36.90480956411059</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>39.32740328798146</v>
+        <v>37.71395757720179</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>40.19554589545518</v>
+        <v>38.54648377348973</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>41.08873176190442</v>
+        <v>39.40302580422475</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>42.00763075613621</v>
+        <v>40.28422605618194</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>42.95291676252634</v>
+        <v>41.19073076696244</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>43.92526670221954</v>
+        <v>42.1231890863499</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>44.92535949840406</v>
+        <v>43.08225208403567</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>45.95387498587984</v>
+        <v>44.06857170392296</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>47.01149276519625</v>
+        <v>45.08279966527486</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>48.09889100223941</v>
+        <v>46.12558631154964</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>49.2167451739679</v>
+        <v>47.19757940759394</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>50.3657267617173</v>
+        <v>48.29942288655585</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>51.54650189308204</v>
+        <v>49.43175554748476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>52.75972993429551</v>
+        <v>50.59520970546063</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>54.00606203500307</v>
+        <v>51.79040979606906</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>55.28613962727991</v>
+        <v>53.0179709359984</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>56.60059288164341</v>
+        <v>54.27849744239577</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>57.9500391226298</v>
+        <v>55.57258131344627</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>59.33508120682</v>
+        <v>56.90080067294188</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>60.75630586656542</v>
+        <v>58.26371818195759</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>62.21428202314544</v>
+        <v>59.66187942121324</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>63.70955907262239</v>
+        <v>61.095811247253</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>65.24266514910715</v>
+        <v>62.56602012696224</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>66.81410536906466</v>
+        <v>64.07299045390211</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>68.42436006169645</v>
+        <v>65.61718285129245</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>70.07388299006831</v>
+        <v>67.19903246611943</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>71.7630995679482</v>
+        <v>68.81894725912936</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>73.49240507768866</v>
+        <v>70.47730629582436</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>75.26216289483648</v>
+        <v>72.17445804390917</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>77.07270272485205</v>
+        <v>73.91071868235078</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>78.92431885818533</v>
+        <v>75.68637042804167</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>80.81726844959208</v>
+        <v>77.50165988570878</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>82.75176982801854</v>
+        <v>79.35679642713687</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84.72800084342748</v>
+        <v>81.25195060581768</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>86.74609725716094</v>
+        <v>83.18725261334957</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>88.80615118230561</v>
+        <v>85.16279078378852</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>90.90820958095634</v>
+        <v>87.1786101525629</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>93.05227282497894</v>
+        <v>89.23471107628237</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>95.23829332713781</v>
+        <v>91.3310479200248</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>97.46617424936019</v>
+        <v>93.46752781859541</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>99.73576829493408</v>
+        <v>95.64400951827582</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>102.0468765913093</v>
+        <v>97.86030230545946</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>104.399247670245</v>
+        <v>100.1161650286392</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>106.792576551582</v>
+        <v>102.4113052197695</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>109.2265039374321</v>
+        <v>104.7453783215142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>111.7006155227693</v>
+        <v>107.1179870261216</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>114.2144414282458</v>
+        <v>109.5286807315101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>116.7674557615596</v>
+        <v>111.9769551206307</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>119.3590763124875</v>
+        <v>114.462251869012</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>121.9886643868853</v>
+        <v>116.9839584855702</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>124.6555247847743</v>
+        <v>119.5414082915949</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>127.3589059269636</v>
+        <v>122.1338805421768</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>130.0980001342972</v>
+        <v>124.760600693998</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>132.8719440635541</v>
+        <v>127.4207408233489</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>135.6798193031674</v>
+        <v>130.1134201974081</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>138.5206531317527</v>
+        <v>132.83770600165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>141.3934194418237</v>
+        <v>135.5926142256654</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>144.2970398304869</v>
+        <v>138.3771107091088</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>147.230384858817</v>
+        <v>141.1901123494063</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>150.1922754803161</v>
+        <v>144.0304884716118</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>153.1814846388858</v>
+        <v>146.8970623608199</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>156.1967390362447</v>
+        <v>149.7886129570734</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>159.23672106729</v>
+        <v>152.7038767113253</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>162.3000709224915</v>
+        <v>155.6415496015795</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>165.3853888546253</v>
+        <v>158.6002893066297</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>168.4912376074805</v>
+        <v>161.5787175351261</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>171.6161450029352</v>
+        <v>164.5754225065138</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>174.758606682342</v>
+        <v>167.5889615799504</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>177.9170889977535</v>
+        <v>170.617864026916</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>181.0900320474346</v>
+        <v>173.6606339421909</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>184.2758528500959</v>
+        <v>176.7157532878623</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>187.472948651075</v>
+        <v>179.7816850638671</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>190.6797003535212</v>
+        <v>182.856876598408</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>193.8944760669084</v>
+        <v>185.9397629508856</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>197.1156347647127</v>
+        <v>189.0287704195163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>200.3415300423476</v>
+        <v>192.1223201450939</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>203.5705139663261</v>
+        <v>195.2188318022368</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>206.8009410047695</v>
+        <v>198.3167273686428</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>210.0311720291702</v>
+        <v>201.4144349626766</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>213.259578376741</v>
+        <v>204.5103927390565</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>216.484545962443</v>
+        <v>207.6030528321826</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>219.7044794293406</v>
+        <v>210.6908853362192</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>222.9178063256986</v>
+        <v>213.7723823108228</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>226.1229812968311</v>
+        <v>216.8460618010153</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>229.3184902797942</v>
+        <v>219.9104718597865</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>232.5028546883599</v>
+        <v>222.964194561374</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>128</v>
+        <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>235.6746355762568</v>
+        <v>226.005849993704</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>129</v>
+        <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>238.8324377656485</v>
+        <v>229.0341002174941</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>241.9749139289354</v>
+        <v>232.0476531805952</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>245.1007686109631</v>
+        <v>235.0452665751851</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>248.2087621791707</v>
+        <v>238.0257516258577</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>251.297714689876</v>
+        <v>240.98797679729</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>254.366509657691</v>
+        <v>243.9308714090142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>257.414097717024</v>
+        <v>246.8534291467023</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>260.4395001634203</v>
+        <v>249.7547114582202</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>263.4418123634472</v>
+        <v>252.6338508236188</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>266.4202070224537</v>
+        <v>255.4900538888301</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>269.3739372992507</v>
+        <v>258.3226044525654</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>272.3023397576973</v>
+        <v>261.1308662968092</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>275.2048371457834</v>
+        <v>263.9142858518875</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>278.0809409926711</v>
+        <v>266.6723946869628</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>280.9302540156816</v>
+        <v>269.404811818272</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>283.7524723288111</v>
+        <v>272.1112458270359</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>286.5473874461235</v>
+        <v>274.7914967806607</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>289.3148880727697</v>
+        <v>277.4454579502789</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>292.0549616783942</v>
+        <v>280.073117319605</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>148</v>
+        <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>294.767695847537</v>
+        <v>282.6745588799367</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>149</v>
+        <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>297.4532794024735</v>
+        <v>285.249963706928</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>300.1120032954619</v>
+        <v>287.7996108162326</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>151</v>
+        <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>302.7442612669957</v>
+        <v>290.3238777947498</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>305.3505502686783</v>
+        <v>292.8232412061506</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>307.931470649091</v>
+        <v>295.2982767691207</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>154</v>
+        <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>310.4877261025483</v>
+        <v>297.7496593082175</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>155</v>
+        <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>313.0201233814967</v>
+        <v>300.1781624780687</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>315.5295717732118</v>
+        <v>302.584658261538</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>157</v>
+        <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>318.017082343792</v>
+        <v>304.9701162447345</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>158</v>
+        <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>320.4837669517053</v>
+        <v>307.3356026710302</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>159</v>
+        <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>322.9308370351047</v>
+        <v>309.6822792781269</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>325.3596021772678</v>
+        <v>312.0114019223499</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>161</v>
+        <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>327.7714684555351</v>
+        <v>314.3243189953226</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>162</v>
+        <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>330.1679365799138</v>
+        <v>316.6224696389365</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>163</v>
+        <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>332.5505998278167</v>
+        <v>318.9073817648186</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>334.9211417828496</v>
+        <v>321.1806698858884</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>165</v>
+        <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>337.2813338855618</v>
+        <v>323.4440327675902</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>166</v>
+        <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>339.6330328048132</v>
+        <v>325.6992509071031</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>167</v>
+        <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>341.9781776393062</v>
+        <v>327.9481838496831</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>168</v>
+        <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>344.3187869592137</v>
+        <v>330.1927673516598</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>169</v>
+        <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>346.6569556981095</v>
+        <v>332.4350103998807</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>170</v>
+        <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>348.9948519062841</v>
+        <v>334.6769920982235</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>171</v>
+        <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>351.3347133766823</v>
+        <v>336.9208584319587</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>353.6788441551877</v>
+        <v>339.1688189212031</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>356.029610947157</v>
+        <v>341.4231431748799</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>174</v>
+        <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>358.3894394326791</v>
+        <v>343.6861573571473</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>175</v>
+        <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>360.7608105030155</v>
+        <v>345.9602405782433</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>176</v>
+        <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>363.1462564308736</v>
+        <v>348.2478212218766</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>177</v>
+        <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>365.5483569875132</v>
+        <v>350.5513732216336</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>178</v>
+        <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>367.9697355194591</v>
+        <v>352.8734122986468</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>179</v>
+        <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>370.4130549979707</v>
+        <v>355.2164921731398</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>372.8810140541668</v>
+        <v>357.5832007622139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>375.3763430126309</v>
+        <v>359.97615637618</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>182</v>
+        <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>377.9017999363318</v>
+        <v>362.3980039257387</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>183</v>
+        <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>380.4601666957072</v>
+        <v>364.8514111523352</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>184</v>
+        <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>383.0542450739998</v>
+        <v>367.3390648932767</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>185</v>
+        <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>385.6868529212629</v>
+        <v>369.8636673935245</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>186</v>
+        <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>388.3608203690824</v>
+        <v>372.42793267571</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>187</v>
+        <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>391.0789861171226</v>
+        <v>375.0345829790296</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>188</v>
+        <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>393.8441938034401</v>
+        <v>377.6863452784694</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>189</v>
+        <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>396.6592884687393</v>
+        <v>380.385947894118</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>190</v>
+        <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>399.5271131252316</v>
+        <v>383.1361172007922</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>191</v>
+        <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>402.4505054404233</v>
+        <v>385.9395744478754</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>192</v>
+        <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>405.4322945444951</v>
+        <v>388.7990326976778</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>193</v>
+        <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>408.4752979708527</v>
+        <v>391.7171938915038</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>194</v>
+        <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>411.5823187381409</v>
+        <v>394.6967460513791</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>195</v>
+        <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>414.7561425813469</v>
+        <v>397.7403606247512</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>196</v>
+        <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>417.9995353394274</v>
+        <v>400.8506899792914</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>197</v>
+        <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>421.3152405062227</v>
+        <v>404.0303650542853</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>198</v>
+        <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>424.7059769504552</v>
+        <v>407.2819931741702</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>199</v>
+        <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>428.17443681066</v>
+        <v>410.6081560298289</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>431.7232835696316</v>
+        <v>414.0114078320333</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>201</v>
+        <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>435.3552474599611</v>
+        <v>417.4943668028759</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202</v>
+        <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>439.0727460806535</v>
+        <v>421.0593513569653</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>203</v>
+        <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>442.8784344675478</v>
+        <v>424.7089076046631</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>204</v>
+        <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>446.7748460022295</v>
+        <v>428.4454649930634</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>205</v>
+        <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>450.7644786054736</v>
+        <v>432.2714189632648</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>206</v>
+        <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>454.8497939564292</v>
+        <v>436.189130201589</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>207</v>
+        <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>459.0332169082574</v>
+        <v>440.2009240791919</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>208</v>
+        <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>463.3171351000248</v>
+        <v>444.30909027988</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>209</v>
+        <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>467.7038987643551</v>
+        <v>448.5158826156537</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>210</v>
+        <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>472.1958207297595</v>
+        <v>452.8235190289416</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>211</v>
+        <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>476.7951766158195</v>
+        <v>457.2341817797753</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>212</v>
+        <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>481.5042052192358</v>
+        <v>461.7500178160017</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>213</v>
+        <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>486.3251090882894</v>
+        <v>466.3731393241745</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>214</v>
+        <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>491.2600552821276</v>
+        <v>471.1056244576911</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>215</v>
+        <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>496.311176311732</v>
+        <v>475.949518239156</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>216</v>
+        <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>501.4805712585866</v>
+        <v>480.906833633154</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>217</v>
+        <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>506.7703070664044</v>
+        <v>485.979552784983</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>218</v>
+        <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>512.182420001448</v>
+        <v>491.1696284210633</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>219</v>
+        <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>517.7189172767683</v>
+        <v>496.4789854065405</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>220</v>
+        <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>523.3817788335593</v>
+        <v>501.9095224535581</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>221</v>
+        <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>529.1729592760922</v>
+        <v>507.4631139768091</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>222</v>
+        <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>535.0943899521757</v>
+        <v>513.1416120886435</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>223</v>
+        <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>541.1479811748821</v>
+        <v>518.946848729646</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>224</v>
+        <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>547.3356245769768</v>
+        <v>524.8806379264721</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>225</v>
+        <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>553.6591955941823</v>
+        <v>530.9447781732347</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>226</v>
+        <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>560.1205560677813</v>
+        <v>537.1410549273319</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>227</v>
+        <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>566.7215569616111</v>
+        <v>543.4712432149743</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>228</v>
+        <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>573.4640411854316</v>
+        <v>549.9371103387216</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>229</v>
+        <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>580.3498465183187</v>
+        <v>556.5404186809416</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>230</v>
+        <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>587.3808086236692</v>
+        <v>563.2829285951199</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>231</v>
+        <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>594.5587641498217</v>
+        <v>570.1664013792762</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>232</v>
+        <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>601.8855539085055</v>
+        <v>577.1926023240133</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>233</v>
+        <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>609.3630261231224</v>
+        <v>584.3633038275358</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>234</v>
+        <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>616.9930397406378</v>
+        <v>591.6802885716668</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>235</v>
+        <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>624.7774677987532</v>
+        <v>599.1453527508791</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>236</v>
+        <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>632.7182008413029</v>
+        <v>606.7603093475716</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>237</v>
+        <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>640.8171503747047</v>
+        <v>614.5269914467165</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>238</v>
+        <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>649.0762523578455</v>
+        <v>622.4472555825677</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>239</v>
+        <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>657.4974707177844</v>
+        <v>630.5229851101295</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>240</v>
+        <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>666.0828008849356</v>
+        <v>638.7560935953054</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>241</v>
+        <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>674.8342733394358</v>
+        <v>647.148528215771</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>242</v>
+        <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>683.7539571616988</v>
+        <v>655.702273165865</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>243</v>
+        <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>692.8439635806674</v>
+        <v>664.4193530592695</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>244</v>
+        <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>702.1064495113493</v>
+        <v>673.3018363214156</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>245</v>
+        <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>711.5436210757499</v>
+        <v>682.3518385659662</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>246</v>
+        <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>721.1577370990628</v>
+        <v>691.5715259475719</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>247</v>
+        <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>730.9511125745422</v>
+        <v>700.9631184845932</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>248</v>
+        <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>740.9261220897508</v>
+        <v>710.5288933447841</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>249</v>
+        <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>751.0852032073175</v>
+        <v>720.2711880873499</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>250</v>
+        <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>761.4308597923476</v>
+        <v>730.1924038538473</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>251</v>
+        <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>771.9656652804141</v>
+        <v>740.2950085021037</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>252</v>
+        <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>782.6922658781676</v>
+        <v>750.581539675518</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>253</v>
+        <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>793.6133836890874</v>
+        <v>761.0546078005759</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>254</v>
+        <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>804.7318197579976</v>
+        <v>771.7168990064602</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>255</v>
+        <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>816.0504570262501</v>
+        <v>782.5711779589956</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>256</v>
+        <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>827.5722631900055</v>
+        <v>793.6202906016655</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>257</v>
+        <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>839.3002934542772</v>
+        <v>804.8671667966684</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>258</v>
+        <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>851.2376931753433</v>
+        <v>816.314822858923</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>259</v>
+        <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>863.3877003823653</v>
+        <v>827.9663639742338</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>260</v>
+        <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>875.7536481720464</v>
+        <v>839.8249864957071</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>261</v>
+        <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>888.3389669661959</v>
+        <v>851.8939801086967</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>262</v>
+        <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>901.1471866246368</v>
+        <v>864.1767298570265</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>263</v>
+        <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>914.1819384059684</v>
+        <v>876.6767180233118</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>264</v>
+        <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>927.4469567639425</v>
+        <v>889.3975258516366</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>265</v>
+        <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>940.9460809746237</v>
+        <v>902.3428351079583</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>266</v>
+        <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>954.6832565817651</v>
+        <v>915.5164294661862</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>267</v>
+        <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>968.6625366515377</v>
+        <v>928.922195711433</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>268</v>
+        <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>982.8880828277352</v>
+        <v>942.5641247519295</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>269</v>
+        <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>997.3641661755784</v>
+        <v>956.4463124282116</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>270</v>
+        <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1012.095167805155</v>
+        <v>970.5729601109825</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>271</v>
+        <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1027.085579262159</v>
+        <v>984.9483750758196</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>272</v>
+        <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1042.340002675933</v>
+        <v>999.5769706451474</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>273</v>
+        <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1057.863150652822</v>
+        <v>1014.463266085963</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>274</v>
+        <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1073.659845902642</v>
+        <v>1029.611886251633</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>275</v>
+        <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1089.7350205872</v>
+        <v>1045.027560957132</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>276</v>
+        <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1106.093715377194</v>
+        <v>1060.715124074649</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>277</v>
+        <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1122.741078205622</v>
+        <v>1076.679512338124</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>278</v>
+        <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1139.682362703991</v>
+        <v>1092.925763843625</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279</v>
+        <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1156.922926308655</v>
+        <v>1109.459016233367</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>280</v>
+        <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1174.468228022978</v>
+        <v>1126.284504549687</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>281</v>
+        <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1192.32382582191</v>
+        <v>1143.407558746106</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>282</v>
+        <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1210.495373684617</v>
+        <v>1160.833600841686</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>283</v>
+        <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1228.98861824097</v>
+        <v>1178.568141705111</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>284</v>
+        <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1247.809395017802</v>
+        <v>1196.61677745494</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>285</v>
+        <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1266.963624269092</v>
+        <v>1214.985185460865</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>286</v>
+        <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1286.457306377211</v>
+        <v>1233.679119933617</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>287</v>
+        <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1306.29651680893</v>
+        <v>1252.704407087923</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>288</v>
+        <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1326.487400612453</v>
+        <v>1272.066939865291</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>289</v>
+        <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1347.036166440422</v>
+        <v>1291.772672202231</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>290</v>
+        <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1367.949080084334</v>
+        <v>1311.827612829933</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>291</v>
+        <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1389.232457506155</v>
+        <v>1332.237818591762</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>292</v>
+        <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1410.892657353936</v>
+        <v>1353.009387265928</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>293</v>
+        <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1432.936072945555</v>
+        <v>1374.148449878105</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>294</v>
+        <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1455.369123710171</v>
+        <v>1395.661162494004</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>295</v>
+        <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1478.198246072825</v>
+        <v>1417.55369747795</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>296</v>
+        <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1501.429883770602</v>
+        <v>1439.832234206325</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>297</v>
+        <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1525.070477589055</v>
+        <v>1462.502949225067</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>298</v>
+        <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1549.12645450929</v>
+        <v>1485.572005842012</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>299</v>
+        <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1573.604216255048</v>
+        <v>1509.045543143838</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1598.510127231405</v>
+        <v>1532.929664429591</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>301</v>
+        <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1623.85050185033</v>
+        <v>1557.230425056231</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>302</v>
+        <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1649.631591234351</v>
+        <v>1581.953819687784</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>303</v>
+        <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1675.859569295693</v>
+        <v>1607.105768945606</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>304</v>
+        <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1702.540518189327</v>
+        <v>1632.692105458231</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>305</v>
+        <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1729.680413137638</v>
+        <v>1658.718559308621</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>306</v>
+        <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1757.285106628612</v>
+        <v>1685.19074288064</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>307</v>
+        <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1785.360311992661</v>
+        <v>1712.114135109654</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>308</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1813.911586362512</v>
+        <v>1739.494065141513</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>309</v>
+        <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1842.944313023993</v>
+        <v>1767.335695407405</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>310</v>
+        <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1872.463683171947</v>
+        <v>1795.644004128257</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>311</v>
+        <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1902.474677083343</v>
+        <v>1824.423767260239</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>312</v>
+        <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1932.982044724034</v>
+        <v>1853.679539897146</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>313</v>
+        <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1963.990285812364</v>
+        <v>1883.415637151914</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>314</v>
+        <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1995.503629361971</v>
+        <v>1913.636114538706</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>315</v>
+        <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2027.52601273087</v>
+        <v>1944.344747881518</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>316</v>
+        <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2060.061060210894</v>
+        <v>1975.54501278202</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>317</v>
+        <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2093.112061189499</v>
+        <v>2007.240063677284</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>318</v>
+        <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2126.681947925395</v>
+        <v>2039.432712527202</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>319</v>
+        <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2160.773272983331</v>
+        <v>2072.12540717502</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>320</v>
+        <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2195.388186371834</v>
+        <v>2105.320209423036</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>321</v>
+        <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2230.52841244164</v>
+        <v>2139.018772878786</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>322</v>
+        <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2266.195226596881</v>
+        <v>2173.222320621685</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>323</v>
+        <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2302.389431886864</v>
+        <v>2207.931622755144</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>324</v>
+        <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2339.111335539025</v>
+        <v>2243.14697390229</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>325</v>
+        <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2376.360725508253</v>
+        <v>2278.868170717373</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>326</v>
+        <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2414.136847117978</v>
+        <v>2315.094489485177</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>327</v>
+        <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2452.438379872249</v>
+        <v>2351.824663884406</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>328</v>
+        <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2491.263414525531</v>
+        <v>2389.056862998216</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>329</v>
+        <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2530.609430499758</v>
+        <v>2426.788669657757</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>330</v>
+        <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2570.473273743036</v>
+        <v>2465.01705920924</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>331</v>
+        <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2610.851135127082</v>
+        <v>2503.738378797646</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>332</v>
+        <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2651.738529488242</v>
+        <v>2542.948327267606</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>333</v>
+        <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2693.130275416151</v>
+        <v>2582.641935781254</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>334</v>
+        <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2735.020475900816</v>
+        <v>2622.813549259277</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>335</v>
+        <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2777.402499951523</v>
+        <v>2663.456808753931</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>336</v>
+        <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2820.268965301987</v>
+        <v>2704.564634863722</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>337</v>
+        <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2863.611722319578</v>
+        <v>2746.129212302781</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>338</v>
+        <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2907.42183924242</v>
+        <v>2788.141975743617</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>339</v>
+        <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2951.689588860786</v>
+        <v>2830.593597044925</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>340</v>
+        <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2996.404436768328</v>
+        <v>2873.473973984824</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>341</v>
+        <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3041.5550313068</v>
+        <v>2916.772220618101</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>342</v>
+        <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3087.129195324683</v>
+        <v>2960.476659372951</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>343</v>
+        <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3133.113919875247</v>
+        <v>3004.574815007582</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>344</v>
+        <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3179.495359969279</v>
+        <v>3049.053410537188</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>345</v>
+        <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3226.258832509264</v>
+        <v>3093.89836525289</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>346</v>
+        <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3273.38881651093</v>
+        <v>3139.09479493418</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>347</v>
+        <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3320.868955734452</v>
+        <v>3184.627014372192</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>348</v>
+        <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3368.682063823217</v>
+        <v>3230.47854229763</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>349</v>
+        <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3416.810132062341</v>
+        <v>3276.632108820994</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>350</v>
+        <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3465.234339846159</v>
+        <v>3323.069665470624</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>351</v>
+        <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3513.935067950325</v>
+        <v>3369.772397920306</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>352</v>
+        <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3562.891914687242</v>
+        <v>3416.720741481904</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>353</v>
+        <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3612.083715022829</v>
+        <v>3463.894399437844</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>354</v>
+        <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3661.488562717422</v>
+        <v>3511.27236427366</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>355</v>
+        <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3711.083835547781</v>
+        <v>3558.832941865254</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>356</v>
+        <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3760.846223655653</v>
+        <v>3453.221499730157</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>357</v>
+        <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3810.751761055387</v>
+        <v>3499.044930005069</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>358</v>
+        <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3860.775860323898</v>
+        <v>3544.977224181869</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>359</v>
+        <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3910.893350481817</v>
+        <v>3590.995270183657</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>360</v>
+        <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3961.078518063626</v>
+        <v>3637.075457820953</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>361</v>
+        <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>4011.30515135495</v>
+        <v>3683.193719410513</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>362</v>
+        <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>4061.546587774161</v>
+        <v>3729.32557328129</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>363</v>
+        <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>4111.775764343771</v>
+        <v>3775.446170117423</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>364</v>
+        <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>4161.965271195281</v>
+        <v>3821.530342086577</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>365</v>
+        <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>4212.087408035892</v>
+        <v>3867.552654687855</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>366</v>
+        <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>4262.114243477748</v>
+        <v>3913.487461228112</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>367</v>
+        <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>4312.01767713582</v>
+        <v>3959.308959840439</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>368</v>
+        <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>4361.769504363965</v>
+        <v>4004.991252925023</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>369</v>
+        <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>4411.341483501318</v>
+        <v>4050.508408895013</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>370</v>
+        <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>4460.705405478951</v>
+        <v>4095.834526089581</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>371</v>
+        <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>4509.833165620053</v>
+        <v>4135.028546987765</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>372</v>
+        <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>4558.696837461089</v>
+        <v>4179.831241578252</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>373</v>
+        <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>4607.268748404088</v>
+        <v>4224.366423026241</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>374</v>
+        <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>4655.521556994847</v>
+        <v>4268.609022179617</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>375</v>
+        <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>4703.42833161851</v>
+        <v>4312.534345664553</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>376</v>
+        <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>4750.962630386678</v>
+        <v>4356.118149133344</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>377</v>
+        <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>4798.098581983018</v>
+        <v>4399.336711391068</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>378</v>
+        <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>4844.810967225462</v>
+        <v>4442.166909179292</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>379</v>
+        <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>4891.075301096603</v>
+        <v>4484.586292389055</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>380</v>
+        <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>4936.867914984879</v>
+        <v>4526.573159467137</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>381</v>
+        <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>4982.166038879456</v>
+        <v>5165.577232101753</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>382</v>
+        <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>5026.947883246631</v>
+        <v>5212.007654907699</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>383</v>
+        <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>5071.192720329015</v>
+        <v>5257.88130128706</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>384</v>
+        <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>5114.880964589686</v>
+        <v>5303.177864689868</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>385</v>
+        <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>5157.994252036394</v>
+        <v>5347.87830508022</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>386</v>
+        <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>5200.515518153716</v>
+        <v>5391.964929737391</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>387</v>
+        <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>5242.429074175769</v>
+        <v>5435.421472336408</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>388</v>
+        <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>5283.720681435597</v>
+        <v>5478.233170034509</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>389</v>
+        <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>5324.377623526888</v>
+        <v>5520.386838289389</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>390</v>
+        <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>5364.38877602453</v>
+        <v>5561.870943146411</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>391</v>
+        <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>5403.744673506661</v>
+        <v>6328.175550834291</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>392</v>
+        <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>5442.437573641506</v>
+        <v>6373.487733296329</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>393</v>
+        <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>5480.461518088056</v>
+        <v>6418.016520300766</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>394</v>
+        <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>5517.812389988632</v>
+        <v>6461.757090709728</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>395</v>
+        <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>5554.487967821279</v>
+        <v>6504.706842960451</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>396</v>
+        <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>5590.487975395105</v>
+        <v>6546.86545361344</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>397</v>
+        <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>5625.814127782883</v>
+        <v>6588.234931142864</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>398</v>
+        <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>5660.470172977079</v>
+        <v>6628.819664718776</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>399</v>
+        <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>5694.461929086901</v>
+        <v>6668.626467767544</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>5727.797316869931</v>
+        <v>6707.664616068738</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>401</v>
+        <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>5760.48638742725</v>
+        <v>6438.739858296504</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>402</v>
+        <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>5792.541344879356</v>
+        <v>6474.569043250981</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>403</v>
+        <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>5823.976563841725</v>
+        <v>6509.705520220885</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>404</v>
+        <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>5854.808601539443</v>
+        <v>6544.167795918659</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>405</v>
+        <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>5885.056204388046</v>
+        <v>6577.976824007729</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>406</v>
+        <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>5914.740308868546</v>
+        <v>6611.156006080545</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>407</v>
+        <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>5943.88403654686</v>
+        <v>6643.731186091604</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>408</v>
+        <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>5972.51268304833</v>
+        <v>6675.73063803379</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>409</v>
+        <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>6000.653700846597</v>
+        <v>6707.185046700773</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>410</v>
+        <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>6028.336675671935</v>
+        <v>6738.127481317607</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>411</v>
+        <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>6055.593296387698</v>
+        <v>7269.996747820623</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>412</v>
+        <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>6082.457318141996</v>
+        <v>7302.248146028563</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>413</v>
+        <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>6108.964518623038</v>
+        <v>7334.071165154692</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>414</v>
+        <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>6135.152647228882</v>
+        <v>7365.511124953439</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>415</v>
+        <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>6161.061366962423</v>
+        <v>7396.615642543052</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>416</v>
+        <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>6186.732188850695</v>
+        <v>7427.434553673189</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>417</v>
+        <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>6212.208398693206</v>
+        <v>7458.019824783178</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>418</v>
+        <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>6237.534975931012</v>
+        <v>7488.425455600906</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>419</v>
+        <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>6262.758504432692</v>
+        <v>7518.707372037594</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>420</v>
+        <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>6287.927074980093</v>
+        <v>7548.923309117788</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>421</v>
+        <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>6313.090179259043</v>
+        <v>7579.132683710723</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>422</v>
+        <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>6338.298595131756</v>
+        <v>7609.396456794963</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>423</v>
+        <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>6363.604263011962</v>
+        <v>7639.776985041514</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>424</v>
+        <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>6389.060153130837</v>
+        <v>7670.337861460922</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>425</v>
+        <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>6414.720123532589</v>
+        <v>7701.143744920962</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>426</v>
+        <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>6440.638768635545</v>
+        <v>7732.260178337784</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>427</v>
+        <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>6466.87125821494</v>
+        <v>7763.753395367931</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>428</v>
+        <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>6493.473166709227</v>
+        <v>7795.690115483309</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>429</v>
+        <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>6520.500292768253</v>
+        <v>7828.137327331116</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>430</v>
+        <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>6548.008469007686</v>
+        <v>7861.162060335964</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>431</v>
+        <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>6576.053361991786</v>
+        <v>7894.831144570701</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>432</v>
+        <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>6604.690262500856</v>
+        <v>7929.210958963586</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>433</v>
+        <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>6633.97386622935</v>
+        <v>7964.367168017059</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>434</v>
+        <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>6663.958045098094</v>
+        <v>8000.364447258363</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>435</v>
+        <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>6694.695609482253</v>
+        <v>8037.266197784123</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>436</v>
+        <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>6726.238061701634</v>
+        <v>8075.134250314992</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>437</v>
+        <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>6758.635341257301</v>
+        <v>8114.028559341397</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>438</v>
+        <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>6791.935562360322</v>
+        <v>8154.006888015664</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>439</v>
+        <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>6826.184744447309</v>
+        <v>8195.124484624479</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>440</v>
+        <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>6861.426536469944</v>
+        <v>8237.43375158677</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>441</v>
+        <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>6897.701935876711</v>
+        <v>8280.983908079348</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>442</v>
+        <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>6935.049003347656</v>
+        <v>8325.82064756388</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>443</v>
+        <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>6973.502574463103</v>
+        <v>8371.985791632942</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>444</v>
+        <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>7013.09396963624</v>
+        <v>8419.516941771786</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>445</v>
+        <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>7053.850703777537</v>
+        <v>8468.447130798148</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>446</v>
+        <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>7095.796197303737</v>
+        <v>8518.804475916275</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>447</v>
+        <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>7138.949490257489</v>
+        <v>8570.611835505411</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>448</v>
+        <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>7183.324961407047</v>
+        <v>8623.886471887075</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>449</v>
+        <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>7228.932054386497</v>
+        <v>8678.639722544767</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>450</v>
+        <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>7275.77501301448</v>
+        <v>8734.876682362872</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>14557.37006470027</v>
+        <v>1472.371561745333</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>17.53795762864798</v>
+        <v>1.773836204530642</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>17.82282149676668</v>
+        <v>1.80264810232005</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>18.11395797750133</v>
+        <v>1.832094429020211</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>18.41158303641844</v>
+        <v>1.862197027969382</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>18.71592140762629</v>
+        <v>1.892978629379716</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>19.02720685667694</v>
+        <v>1.924462876927884</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>19.34568244159426</v>
+        <v>1.956674354156145</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>19.67160077114689</v>
+        <v>1.989638610594777</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>20.00522425917452</v>
+        <v>2.023382187485311</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>20.34682537416705</v>
+        <v>2.057932643023644</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>20.69668688302866</v>
+        <v>2.093318577014995</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>21.05510208763355</v>
+        <v>2.129569654799782</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4223750533556</v>
+        <v>2.166716630367732</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>21.79882082796012</v>
+        <v>2.204791368497177</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>22.1847656499016</v>
+        <v>2.243826865822854</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>22.58054714438116</v>
+        <v>2.283857270665678</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>22.98651450596012</v>
+        <v>2.324917901502774</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>23.40302866624444</v>
+        <v>2.367045263927526</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>23.83046244500759</v>
+        <v>2.410277065934558</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24.26920068348829</v>
+        <v>2.454652231401819</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24.71964035798883</v>
+        <v>2.500210911580227</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>25.18219067235205</v>
+        <v>2.546994494447041</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>25.65727312768467</v>
+        <v>2.595045611757858</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>26.14532156747009</v>
+        <v>2.644408143609454</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>26.64678219663999</v>
+        <v>2.695127220368728</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>27.16211357267608</v>
+        <v>2.747249221772711</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>27.69178656712958</v>
+        <v>2.800821773036551</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>28.2362842958892</v>
+        <v>2.855893737800613</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>28.79610201630578</v>
+        <v>2.912515207725404</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>29.37174698963965</v>
+        <v>2.970737488579119</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>29.96373830706293</v>
+        <v>3.03061308263905</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>30.57260667752112</v>
+        <v>3.092195667235337</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>31.19889417590551</v>
+        <v>3.155540069280446</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>31.84315394984046</v>
+        <v>3.220702235612845</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>32.50594988367523</v>
+        <v>3.28773919901224</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>33.18785621801339</v>
+        <v>3.356709039717749</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>33.88945712360258</v>
+        <v>3.427670842329968</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>34.6113462280788</v>
+        <v>3.500684647944621</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>35.3541260944053</v>
+        <v>3.575811401400459</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>36.11840764975658</v>
+        <v>3.653112893515058</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>36.90480956411059</v>
+        <v>3.732651698233957</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>37.71395757720179</v>
+        <v>3.814491104556883</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>38.54648377348973</v>
+        <v>3.898695043206128</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>39.40302580422475</v>
+        <v>3.985328007944173</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>40.28422605618194</v>
+        <v>4.074454971497207</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>41.19073076696244</v>
+        <v>4.16614129607433</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>42.1231890863499</v>
+        <v>4.260452638430605</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>43.08225208403567</v>
+        <v>4.357454849505729</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>44.06857170392296</v>
+        <v>4.457213868659538</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>45.08279966527486</v>
+        <v>4.559795612531159</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>46.12558631154964</v>
+        <v>4.665265858607121</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>47.19757940759394</v>
+        <v>4.773690123566237</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>48.29942288655585</v>
+        <v>4.885133536539022</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>49.43175554748476</v>
+        <v>4.999660707379442</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>50.59520970546063</v>
+        <v>5.117335590135355</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>51.79040979606906</v>
+        <v>5.238221341901364</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>53.0179709359984</v>
+        <v>5.362380177233745</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>54.27849744239577</v>
+        <v>5.489873218394123</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>55.57258131344627</v>
+        <v>5.620760341671173</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>56.90080067294188</v>
+        <v>5.755100020060135</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>58.26371818195759</v>
+        <v>5.892949162615463</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>59.66187942121324</v>
+        <v>6.034362950838549</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>61.095811247253</v>
+        <v>6.179394672417303</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>62.56602012696224</v>
+        <v>6.328095552774701</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>64.07299045390211</v>
+        <v>6.480514584778338</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>65.61718285129245</v>
+        <v>6.636698357099558</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>67.19903246611943</v>
+        <v>6.79669088167491</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>68.81894725912936</v>
+        <v>6.960533420751524</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>70.47730629582436</v>
+        <v>7.128264314033818</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>72.17445804390917</v>
+        <v>7.299918806482684</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>73.91071868235078</v>
+        <v>7.475528877289239</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>75.68637042804167</v>
+        <v>7.655123070629034</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>77.50165988570878</v>
+        <v>7.838726328767418</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>79.35679642713687</v>
+        <v>8.026359828129829</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>81.25195060581768</v>
+        <v>8.21804081895514</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>83.18725261334957</v>
+        <v>8.413782469171769</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>85.16279078378852</v>
+        <v>8.613593713123725</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>87.1786101525629</v>
+        <v>8.817479105815357</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>89.23471107628237</v>
+        <v>9.025438683315127</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>91.3310479200248</v>
+        <v>9.23746782998427</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>93.46752781859541</v>
+        <v>9.453557153187218</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>95.64400951827582</v>
+        <v>9.673692366142975</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>97.86030230545946</v>
+        <v>9.897854179564435</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>100.1161650286392</v>
+        <v>10.12601820273957</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>102.4113052197695</v>
+        <v>10.35815485466362</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>104.7453783215142</v>
+        <v>10.59422928588091</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>107.1179870261216</v>
+        <v>10.83420131161681</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>109.5286807315101</v>
+        <v>11.07802535676487</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>111.9769551206307</v>
+        <v>11.32565041334235</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>114.462251869012</v>
+        <v>11.57702001091052</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>116.9839584855702</v>
+        <v>11.83207220047384</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>119.5414082915949</v>
+        <v>12.09073955235444</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>122.1338805421768</v>
+        <v>12.35294916847368</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>124.760600693998</v>
+        <v>12.61862270943717</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>127.4207408233489</v>
+        <v>12.88767643681417</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>130.1134201974081</v>
+        <v>13.16002127091828</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>132.83770600165</v>
+        <v>13.43556286437951</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>135.5926142256654</v>
+        <v>13.71420169173847</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>138.3771107091088</v>
+        <v>13.99583315523637</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>141.1901123494063</v>
+        <v>14.28034770696576</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>144.0304884716118</v>
+        <v>14.56763098742154</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>146.8970623608199</v>
+        <v>14.85756398049329</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>149.7886129570734</v>
+        <v>15.1500231848928</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>152.7038767113253</v>
+        <v>15.444880801871</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>155.6415496015795</v>
+        <v>15.74200493913594</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>158.6002893066297</v>
+        <v>16.0412598307105</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>161.5787175351261</v>
+        <v>16.34250607250053</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>164.5754225065138</v>
+        <v>16.64560087322359</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>167.5889615799504</v>
+        <v>16.95039832030476</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>170.617864026916</v>
+        <v>17.25674966030587</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>173.6606339421909</v>
+        <v>17.56450359334962</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>176.7157532878623</v>
+        <v>17.87350658099863</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>179.7816850638671</v>
+        <v>18.1836031669326</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>182.856876598408</v>
+        <v>18.49463630974988</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>185.9397629508856</v>
+        <v>18.80644772714922</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>189.0287704195163</v>
+        <v>19.11887825069959</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>192.1223201450939</v>
+        <v>19.43176819033439</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>195.2188318022368</v>
+        <v>19.7449577076941</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>198.3167273686428</v>
+        <v>20.05828719735883</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>201.4144349626766</v>
+        <v>20.37159767499227</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>204.5103927390565</v>
+        <v>20.68473117136188</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>207.6030528321826</v>
+        <v>20.99753113117779</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>210.6908853362192</v>
+        <v>21.30984281564894</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>213.7723823108228</v>
+        <v>21.62151370763323</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>216.8460618010153</v>
+        <v>21.93239391821834</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>219.9104718597865</v>
+        <v>22.24233659357849</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>222.964194561374</v>
+        <v>22.55119832088845</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>226.005849993704</v>
+        <v>22.85883953212966</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>229.0341002174941</v>
+        <v>23.16512490452459</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>232.0476531805952</v>
+        <v>23.46992375644378</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>235.0452665751851</v>
+        <v>23.77311043753279</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>238.0257516258577</v>
+        <v>24.07456471184974</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>240.98797679729</v>
+        <v>24.37417213286868</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>243.9308714090142</v>
+        <v>24.67182440908739</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>246.8534291467023</v>
+        <v>24.96741975916819</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>249.7547114582202</v>
+        <v>25.26086325542389</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>252.6338508236188</v>
+        <v>25.55206715455357</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>255.4900538888301</v>
+        <v>25.84095121459299</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>258.3226044525654</v>
+        <v>26.12744299701753</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>261.1308662968092</v>
+        <v>26.41147815302593</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>263.9142858518875</v>
+        <v>26.69300069309247</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>266.6723946869628</v>
+        <v>26.97196323886238</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>269.404811818272</v>
+        <v>27.24832725661316</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>272.1112458270359</v>
+        <v>27.52206327146567</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>274.7914967806607</v>
+        <v>27.79315106169966</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>277.4454579502789</v>
+        <v>28.06157983247039</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>280.073117319605</v>
+        <v>28.32734836841845</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>282.6745588799367</v>
+        <v>28.59046516464957</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>285.249963706928</v>
+        <v>28.85094853564243</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>287.7996108162326</v>
+        <v>29.10882670179068</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>290.3238777947498</v>
+        <v>29.36413785324885</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>292.8232412061506</v>
+        <v>29.61693019094842</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>295.2982767691207</v>
+        <v>29.8672619446257</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>297.7496593082175</v>
+        <v>30.11520136785143</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>300.1781624780687</v>
+        <v>30.36082671013547</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>302.584658261538</v>
+        <v>30.60422616616992</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>304.9701162447345</v>
+        <v>30.84549780250165</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>307.3356026710302</v>
+        <v>31.08474946185308</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>309.6822792781269</v>
+        <v>31.32209864549997</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>312.0114019223499</v>
+        <v>31.55767237412879</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>314.3243189953226</v>
+        <v>31.79160702769497</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>316.6224696389365</v>
+        <v>32.0240481648801</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>318.9073817648186</v>
+        <v>32.25515032277563</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>321.1806698858884</v>
+        <v>32.48507679756059</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>323.4440327675902</v>
+        <v>32.71399940694101</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>325.6992509071031</v>
+        <v>32.94209823519041</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>327.9481838496831</v>
+        <v>33.16956136171738</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>330.1927673516598</v>
+        <v>33.39658457412354</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>332.4350103998807</v>
+        <v>33.62337106674195</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>334.6769920982235</v>
+        <v>33.85013112573076</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>336.9208584319587</v>
+        <v>34.07708180181206</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>339.1688189212031</v>
+        <v>34.30444657179318</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>341.4231431748799</v>
+        <v>34.53245499002493</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>343.6861573571473</v>
+        <v>34.7613423310067</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>345.9602405782433</v>
+        <v>34.99134922434681</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>348.2478212218766</v>
+        <v>35.22272128330491</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>350.5513732216336</v>
+        <v>35.45570872817781</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>352.8734122986468</v>
+        <v>35.69056600576712</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>355.2164921731398</v>
+        <v>35.92755140620473</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>357.5832007622139</v>
+        <v>36.16692667838669</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>359.97615637618</v>
+        <v>36.40895664526003</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>362.3980039257387</v>
+        <v>36.65390882020677</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>364.8514111523352</v>
+        <v>36.9020530257718</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>367.3390648932767</v>
+        <v>37.15366101590686</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>369.8636673935245</v>
+        <v>37.4090061029353</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>372.42793267571</v>
+        <v>37.66836279040567</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>375.0345829790296</v>
+        <v>37.93200641291198</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>377.6863452784694</v>
+        <v>38.2002127840388</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>380.385947894118</v>
+        <v>38.47325785341797</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>383.1361172007922</v>
+        <v>38.75141737393129</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>385.9395744478754</v>
+        <v>39.03496658006046</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>388.7990326976778</v>
+        <v>39.32417987822455</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>391.7171938915038</v>
+        <v>39.61933055003421</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>394.6967460513791</v>
+        <v>39.92069046926682</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>397.7403606247512</v>
+        <v>40.22852983330232</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>400.8506899792914</v>
+        <v>40.54311690974077</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>404.0303650542853</v>
+        <v>40.86471779885768</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>407.2819931741702</v>
+        <v>41.19359621245928</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>410.6081560298289</v>
+        <v>41.53001326970514</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>414.0114078320333</v>
+        <v>41.87422731034254</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>417.4943668028759</v>
+        <v>42.22650314839584</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>421.0593513569653</v>
+        <v>42.58707527455417</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>424.7089076046631</v>
+        <v>42.95620120926749</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>428.4454649930634</v>
+        <v>43.33412667334913</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>432.2714189632648</v>
+        <v>43.72109394815457</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>436.189130201589</v>
+        <v>44.11734179984764</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>440.2009240791919</v>
+        <v>44.52310542272139</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>444.30909027988</v>
+        <v>44.9386164015543</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>448.5158826156537</v>
+        <v>45.36410269295394</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>452.8235190289416</v>
+        <v>45.79978862558288</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>457.2341817797753</v>
+        <v>46.24589491909015</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>461.7500178160017</v>
+        <v>46.70263872155537</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>466.3731393241745</v>
+        <v>47.1702336652075</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>471.1056244576911</v>
+        <v>47.64888994007057</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>475.949518239156</v>
+        <v>48.13881438523104</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>480.906833633154</v>
+        <v>48.64021059734108</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>485.979552784983</v>
+        <v>49.15327905590732</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>491.1696284210633</v>
+        <v>49.67821726493191</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>496.4789854065405</v>
+        <v>50.21521991045279</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>501.9095224535581</v>
+        <v>50.76447903332292</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>507.4631139768091</v>
+        <v>51.32618421688577</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>513.1416120886435</v>
+        <v>51.90052278876583</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>518.946848729646</v>
+        <v>52.48768003636103</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>524.8806379264721</v>
+        <v>53.08783943520629</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>530.9447781732347</v>
+        <v>53.70118288983339</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>537.1410549273319</v>
+        <v>54.32789098620576</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>543.4712432149743</v>
+        <v>54.96814325524841</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>549.9371103387216</v>
+        <v>55.62211844669559</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>556.5404186809416</v>
+        <v>56.28999481264003</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>563.2829285951199</v>
+        <v>56.97195039996792</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>570.1664013792762</v>
+        <v>57.66816335109814</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>577.1926023240133</v>
+        <v>58.37881221227017</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>584.3633038275358</v>
+        <v>59.10407624860547</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>591.6802885716668</v>
+        <v>59.84413576533829</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>599.1453527508791</v>
+        <v>60.59917243440865</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>606.7603093475716</v>
+        <v>61.36936962573258</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>614.5269914467165</v>
+        <v>62.15491274245439</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>622.4472555825677</v>
+        <v>62.95598955944186</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>630.5229851101295</v>
+        <v>63.77279056428559</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>638.7560935953054</v>
+        <v>64.60550930018775</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>647.148528215771</v>
+        <v>65.45434270993557</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>655.702273165865</v>
+        <v>66.31949148028117</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>664.4193530592695</v>
+        <v>67.20116038609771</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>673.3018363214156</v>
+        <v>68.09955863349654</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>682.3518385659662</v>
+        <v>69.01490020133365</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>691.5715259475719</v>
+        <v>69.94740418031647</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>700.9631184845932</v>
+        <v>70.89729510907296</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>710.5288933447841</v>
+        <v>71.86480330647439</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>720.2711880873499</v>
+        <v>72.85016519954583</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>730.1924038538473</v>
+        <v>73.85362364620249</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>740.2950085021037</v>
+        <v>74.87542825222252</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>750.581539675518</v>
+        <v>75.91583568168454</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>761.0546078005759</v>
+        <v>76.97510996014428</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>771.7168990064602</v>
+        <v>78.05352276993187</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>782.5711779589956</v>
+        <v>79.15135373678469</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>793.6202906016655</v>
+        <v>80.26889070708104</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>804.8671667966684</v>
+        <v>81.40643001496383</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>816.314822858923</v>
+        <v>82.56427673863661</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>827.9663639742338</v>
+        <v>83.7427449449433</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>839.8249864957071</v>
+        <v>84.94215792163399</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>851.8939801086967</v>
+        <v>86.16284839633327</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>864.1767298570265</v>
+        <v>87.40515874147786</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>876.6767180233118</v>
+        <v>88.66944116449743</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>889.3975258516366</v>
+        <v>89.95605788205069</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>902.3428351079583</v>
+        <v>91.26538127784904</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>915.5164294661862</v>
+        <v>92.59779404284822</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>928.922195711433</v>
+        <v>93.95368929694838</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>942.5641247519295</v>
+        <v>95.33347069134192</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>956.4463124282116</v>
+        <v>96.73755249035678</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>970.5729601109825</v>
+        <v>98.16635963192584</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>984.9483750758196</v>
+        <v>99.62032776548584</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>999.5769706451474</v>
+        <v>101.0999032663368</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1014.463266085963</v>
+        <v>102.6055432252979</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1029.611886251633</v>
+        <v>104.1377154124774</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1045.027560957132</v>
+        <v>105.6968982140834</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1060.715124074649</v>
+        <v>107.28358054095</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1076.679512338124</v>
+        <v>108.8982617076258</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1092.925763843625</v>
+        <v>110.5414512806975</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1109.459016233367</v>
+        <v>112.2136688951169</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1126.284504549687</v>
+        <v>113.9154440371462</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1143.407558746106</v>
+        <v>115.6473157926198</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1160.833600841686</v>
+        <v>117.4098325591288</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1178.568141705111</v>
+        <v>119.2035517207537</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1196.61677745494</v>
+        <v>121.0290392839769</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1214.985185460865</v>
+        <v>122.8868694732388</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1233.679119933617</v>
+        <v>124.7776242848895</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1252.704407087923</v>
+        <v>126.7018929979564</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1272.066939865291</v>
+        <v>128.6602716403932</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1291.772672202231</v>
+        <v>130.6533624093523</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1311.827612829933</v>
+        <v>132.6817730440673</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1332.237818591762</v>
+        <v>134.7461161499665</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1353.009387265928</v>
+        <v>136.8470084727387</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1374.148449878105</v>
+        <v>138.9850701208104</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1395.661162494004</v>
+        <v>141.1609237352251</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1417.55369747795</v>
+        <v>143.3751936055117</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1439.832234206325</v>
+        <v>145.6285047304173</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1462.502949225067</v>
+        <v>147.9214818224108</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1485.572005842012</v>
+        <v>150.2547482550233</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1509.045543143838</v>
+        <v>152.628924951993</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1532.929664429591</v>
+        <v>155.044629217401</v>
       </c>
     </row>
     <row r="303">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1472.371561745333</v>
+        <v>490.7905205817778</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1.773836204530642</v>
+        <v>0.5912787348435472</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1.80264810232005</v>
+        <v>0.60088270077335</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1.832094429020211</v>
+        <v>0.6106981430067372</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1.862197027969382</v>
+        <v>0.6207323426564608</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1.892978629379716</v>
+        <v>0.6309928764599054</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1.924462876927884</v>
+        <v>0.641487625642628</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1.956674354156145</v>
+        <v>0.6522247847187151</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1.989638610594777</v>
+        <v>0.6632128701982591</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>2.023382187485311</v>
+        <v>0.6744607291617704</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>2.057932643023644</v>
+        <v>0.6859775476745481</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>2.093318577014995</v>
+        <v>0.6977728590049985</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>2.129569654799782</v>
+        <v>0.7098565515999273</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>2.166716630367732</v>
+        <v>0.7222388767892439</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>2.204791368497177</v>
+        <v>0.7349304561657257</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>2.243826865822854</v>
+        <v>0.747942288607618</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>2.283857270665678</v>
+        <v>0.7612857568885594</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>2.324917901502774</v>
+        <v>0.7749726338342581</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>2.367045263927526</v>
+        <v>0.7890150879758422</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>2.410277065934558</v>
+        <v>0.8034256886448529</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>2.454652231401819</v>
+        <v>0.8182174104672729</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>2.500210911580227</v>
+        <v>0.8334036371934092</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>2.546994494447041</v>
+        <v>0.8489981648156802</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>2.595045611757858</v>
+        <v>0.8650152039192862</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>2.644408143609454</v>
+        <v>0.8814693812031512</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>2.695127220368728</v>
+        <v>0.8983757401229091</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>2.747249221772711</v>
+        <v>0.9157497405909039</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>2.800821773036551</v>
+        <v>0.9336072576788504</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>2.855893737800613</v>
+        <v>0.9519645792668711</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>2.912515207725404</v>
+        <v>0.9708384025751345</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>2.970737488579119</v>
+        <v>0.990245829526373</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3.03061308263905</v>
+        <v>1.010204360879683</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3.092195667235337</v>
+        <v>1.030731889078446</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3.155540069280446</v>
+        <v>1.051846689760149</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3.220702235612845</v>
+        <v>1.073567411870949</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3.28773919901224</v>
+        <v>1.095913066337413</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>3.356709039717749</v>
+        <v>1.11890301323925</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>3.427670842329968</v>
+        <v>1.142556947443323</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>3.500684647944621</v>
+        <v>1.166894882648207</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>3.575811401400459</v>
+        <v>1.191937133800153</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>3.653112893515058</v>
+        <v>1.217704297838353</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>3.732651698233957</v>
+        <v>1.244217232744652</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>3.814491104556883</v>
+        <v>1.271497034852294</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>3.898695043206128</v>
+        <v>1.299565014402043</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>3.985328007944173</v>
+        <v>1.328442669314724</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4.074454971497207</v>
+        <v>1.358151657165736</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4.16614129607433</v>
+        <v>1.38871376535811</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>4.260452638430605</v>
+        <v>1.420150879476868</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>4.357454849505729</v>
+        <v>1.452484949835243</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>4.457213868659538</v>
+        <v>1.485737956219846</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>4.559795612531159</v>
+        <v>1.51993187084372</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>4.665265858607121</v>
+        <v>1.555088619535707</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>4.773690123566237</v>
+        <v>1.591230041188746</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>4.885133536539022</v>
+        <v>1.628377845513007</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>4.999660707379442</v>
+        <v>1.666553569126481</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>5.117335590135355</v>
+        <v>1.705778530045118</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>5.238221341901364</v>
+        <v>1.746073780633788</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>5.362380177233745</v>
+        <v>1.787460059077915</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>5.489873218394123</v>
+        <v>1.829957739464708</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>5.620760341671173</v>
+        <v>1.873586780557058</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>5.755100020060135</v>
+        <v>1.918366673353379</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>5.892949162615463</v>
+        <v>1.964316387538488</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>6.034362950838549</v>
+        <v>2.011454316946183</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>6.179394672417303</v>
+        <v>2.059798224139101</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>6.328095552774701</v>
+        <v>2.109365184258233</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>6.480514584778338</v>
+        <v>2.160171528259446</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>6.636698357099558</v>
+        <v>2.212232785699853</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>6.79669088167491</v>
+        <v>2.26556362722497</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>6.960533420751524</v>
+        <v>2.320177806917175</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>7.128264314033818</v>
+        <v>2.376088104677939</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>7.299918806482684</v>
+        <v>2.433306268827562</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>7.475528877289239</v>
+        <v>2.491842959096413</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>7.655123070629034</v>
+        <v>2.551707690209678</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>7.838726328767418</v>
+        <v>2.612908776255806</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>8.026359828129829</v>
+        <v>2.675453276043276</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>8.21804081895514</v>
+        <v>2.739346939651713</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>8.413782469171769</v>
+        <v>2.80459415639059</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>8.613593713123725</v>
+        <v>2.871197904374575</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>8.817479105815357</v>
+        <v>2.939159701938453</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>9.025438683315127</v>
+        <v>3.008479561105042</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>9.23746782998427</v>
+        <v>3.07915594332809</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>9.453557153187218</v>
+        <v>3.151185717729073</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>9.673692366142975</v>
+        <v>3.224564122047659</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>9.897854179564435</v>
+        <v>3.299284726521479</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>10.12601820273957</v>
+        <v>3.375339400913191</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>10.35815485466362</v>
+        <v>3.452718284887875</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>10.59422928588091</v>
+        <v>3.531409761960302</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>10.83420131161681</v>
+        <v>3.611400437205604</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>11.07802535676487</v>
+        <v>3.692675118921624</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>11.32565041334235</v>
+        <v>3.775216804447449</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>11.57702001091052</v>
+        <v>3.859006670303507</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>11.83207220047384</v>
+        <v>3.944024066824615</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>12.09073955235444</v>
+        <v>4.030246517451481</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>12.35294916847368</v>
+        <v>4.117649722824559</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>12.61862270943717</v>
+        <v>4.20620756981239</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>12.88767643681417</v>
+        <v>4.295892145604722</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>13.16002127091828</v>
+        <v>4.386673756972759</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>13.43556286437951</v>
+        <v>4.47852095479317</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>13.71420169173847</v>
+        <v>4.571400563912825</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>13.99583315523637</v>
+        <v>4.665277718412121</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>14.28034770696576</v>
+        <v>4.76011590232192</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>14.56763098742154</v>
+        <v>4.855876995807179</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>14.85756398049329</v>
+        <v>4.952521326831096</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>15.1500231848928</v>
+        <v>5.050007728297599</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>15.444880801871</v>
+        <v>5.148293600623666</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>15.74200493913594</v>
+        <v>5.247334979711979</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>16.0412598307105</v>
+        <v>5.347086610236834</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>16.34250607250053</v>
+        <v>5.447502024166845</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>16.64560087322359</v>
+        <v>5.548533624407865</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>16.95039832030476</v>
+        <v>5.650132773434919</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>17.25674966030587</v>
+        <v>5.752249886768623</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>17.56450359334962</v>
+        <v>5.854834531116542</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>17.87350658099863</v>
+        <v>5.957835526999544</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>18.1836031669326</v>
+        <v>6.061201055644198</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>18.49463630974988</v>
+        <v>6.164878769916626</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>18.80644772714922</v>
+        <v>6.26881590904974</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>19.11887825069959</v>
+        <v>6.372959416899862</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>19.43176819033439</v>
+        <v>6.477256063444798</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>19.7449577076941</v>
+        <v>6.581652569231366</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>20.05828719735883</v>
+        <v>6.686095732452942</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>20.37159767499227</v>
+        <v>6.790532558330756</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>20.68473117136188</v>
+        <v>6.894910390453961</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>20.99753113117779</v>
+        <v>6.99917704372593</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>21.30984281564894</v>
+        <v>7.103280938549647</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>21.62151370763323</v>
+        <v>7.207171235877746</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>21.93239391821834</v>
+        <v>7.310797972739447</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>22.24233659357849</v>
+        <v>7.414112197859498</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>22.55119832088845</v>
+        <v>7.517066106962818</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>22.85883953212966</v>
+        <v>7.619613177376554</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>23.16512490452459</v>
+        <v>7.721708301508198</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>23.46992375644378</v>
+        <v>7.823307918814594</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>23.77311043753279</v>
+        <v>7.924370145844264</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>24.07456471184974</v>
+        <v>8.024854903949912</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>24.37417213286868</v>
+        <v>8.124724044289559</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>24.67182440908739</v>
+        <v>8.223941469695797</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>24.96741975916819</v>
+        <v>8.322473253056064</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>25.26086325542389</v>
+        <v>8.420287751807964</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>25.55206715455357</v>
+        <v>8.517355718184522</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>25.84095121459299</v>
+        <v>8.61365040486433</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>26.12744299701753</v>
+        <v>8.709147665672511</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>26.41147815302593</v>
+        <v>8.803826051008643</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>26.69300069309247</v>
+        <v>8.897666897697491</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>26.97196323886238</v>
+        <v>8.990654412954127</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>27.24832725661316</v>
+        <v>9.082775752204386</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>27.52206327146567</v>
+        <v>9.174021090488557</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>27.79315106169966</v>
+        <v>9.26438368723322</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>28.06157983247039</v>
+        <v>9.353859944156799</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>28.32734836841845</v>
+        <v>9.442449456139483</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>28.59046516464957</v>
+        <v>9.53015505488319</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>28.85094853564243</v>
+        <v>9.616982845214144</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>29.10882670179068</v>
+        <v>9.702942233930226</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>29.36413785324885</v>
+        <v>9.788045951082951</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>29.61693019094842</v>
+        <v>9.872310063649476</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>29.8672619446257</v>
+        <v>9.955753981541902</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>30.11520136785143</v>
+        <v>10.03840045595048</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>30.36082671013547</v>
+        <v>10.12027557004516</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>30.60422616616992</v>
+        <v>10.20140872205664</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>30.84549780250165</v>
+        <v>10.28183260083388</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>31.08474946185308</v>
+        <v>10.36158315395103</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>31.32209864549997</v>
+        <v>10.44069954849999</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>31.55767237412879</v>
+        <v>10.5192241247096</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>31.79160702769497</v>
+        <v>10.59720234256499</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>32.0240481648801</v>
+        <v>10.6746827216267</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>32.25515032277563</v>
+        <v>10.75171677425854</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>32.48507679756059</v>
+        <v>10.8283589325202</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>32.71399940694101</v>
+        <v>10.90466646898034</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>32.94209823519041</v>
+        <v>10.98069941173014</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>33.16956136171738</v>
+        <v>11.0565204539058</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>33.39658457412354</v>
+        <v>11.13219485804118</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>33.62337106674195</v>
+        <v>11.20779035558065</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>33.85013112573076</v>
+        <v>11.28337704191025</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>34.07708180181206</v>
+        <v>11.35902726727069</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>34.30444657179318</v>
+        <v>11.43481552393106</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>34.53245499002493</v>
+        <v>11.51081833000831</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>34.7613423310067</v>
+        <v>11.58711411033557</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>34.99134922434681</v>
+        <v>11.66378307478227</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>35.22272128330491</v>
+        <v>11.74090709443497</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>35.45570872817781</v>
+        <v>11.81856957605927</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>35.69056600576712</v>
+        <v>11.89685533525571</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>35.92755140620473</v>
+        <v>11.97585046873491</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>36.16692667838669</v>
+        <v>12.0556422261289</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>36.40895664526003</v>
+        <v>12.13631888175335</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>36.65390882020677</v>
+        <v>12.21796960673559</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>36.9020530257718</v>
+        <v>12.30068434192393</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>37.15366101590686</v>
+        <v>12.38455367196896</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>37.4090061029353</v>
+        <v>12.46966870097843</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>37.66836279040567</v>
+        <v>12.55612093013522</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>37.93200641291198</v>
+        <v>12.64400213763733</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>38.2002127840388</v>
+        <v>12.73340426134627</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>38.47325785341797</v>
+        <v>12.82441928447266</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>38.75141737393129</v>
+        <v>12.91713912464376</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>39.03496658006046</v>
+        <v>13.01165552668682</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>39.32417987822455</v>
+        <v>13.10805995940818</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>39.61933055003421</v>
+        <v>13.20644351667807</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>39.92069046926682</v>
+        <v>13.30689682308894</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>40.22852983330232</v>
+        <v>13.40950994443411</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>40.54311690974077</v>
+        <v>13.51437230324693</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>40.86471779885768</v>
+        <v>13.62157259961923</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>41.19359621245928</v>
+        <v>13.73119873748643</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>41.53001326970514</v>
+        <v>13.84333775656838</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>41.87422731034254</v>
+        <v>13.95807577011418</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>42.22650314839584</v>
+        <v>14.07550104946528</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>42.58707527455417</v>
+        <v>14.19569175818473</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>42.95620120926749</v>
+        <v>14.3187337364225</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>43.33412667334913</v>
+        <v>14.44470889111638</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>43.72109394815457</v>
+        <v>14.57369798271819</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>44.11734179984764</v>
+        <v>14.70578059994922</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>44.52310542272139</v>
+        <v>14.84103514090713</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>44.9386164015543</v>
+        <v>14.9795388005181</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>45.36410269295394</v>
+        <v>15.12136756431798</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>45.79978862558288</v>
+        <v>15.26659620852763</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>46.24589491909015</v>
+        <v>15.41529830636338</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>46.70263872155537</v>
+        <v>15.56754624051846</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>47.1702336652075</v>
+        <v>15.72341122173584</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>47.64888994007057</v>
+        <v>15.88296331335686</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>48.13881438523104</v>
+        <v>16.04627146174368</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>48.64021059734108</v>
+        <v>16.21340353244703</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>49.15327905590732</v>
+        <v>16.38442635196911</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>49.67821726493191</v>
+        <v>16.55940575497731</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>50.21521991045279</v>
+        <v>16.7384066368176</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>50.76447903332292</v>
+        <v>16.92149301110764</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>51.32618421688577</v>
+        <v>17.10872807229526</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>51.90052278876583</v>
+        <v>17.30017426292195</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>52.48768003636103</v>
+        <v>17.49589334545368</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>53.08783943520629</v>
+        <v>17.6959464784021</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>53.70118288983339</v>
+        <v>17.90039429661113</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>54.32789098620576</v>
+        <v>18.10929699540192</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>54.96814325524841</v>
+        <v>18.32271441841614</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>55.62211844669559</v>
+        <v>18.54070614889853</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>56.28999481264003</v>
+        <v>18.76333160421335</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>56.97195039996792</v>
+        <v>18.99065013332264</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>57.66816335109814</v>
+        <v>19.22272111703271</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>58.37881221227017</v>
+        <v>19.45960407075673</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>59.10407624860547</v>
+        <v>19.70135874953516</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>59.84413576533829</v>
+        <v>19.94804525511276</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>60.59917243440865</v>
+        <v>20.19972414480288</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>61.36936962573258</v>
+        <v>20.45645654191086</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>62.15491274245439</v>
+        <v>20.7183042474848</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>62.95598955944186</v>
+        <v>20.98532985314729</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>63.77279056428559</v>
+        <v>21.25759685476186</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64.60550930018775</v>
+        <v>21.53516976672925</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65.45434270993557</v>
+        <v>21.81811423664519</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>66.31949148028117</v>
+        <v>22.10649716009372</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>67.20116038609771</v>
+        <v>22.4003867953659</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>68.09955863349654</v>
+        <v>22.69985287783218</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>69.01490020133365</v>
+        <v>23.00496673377788</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>69.94740418031647</v>
+        <v>23.31580139343883</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>70.89729510907296</v>
+        <v>23.63243170302432</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>71.86480330647439</v>
+        <v>23.95493443549146</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>72.85016519954583</v>
+        <v>24.28338839984861</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>73.85362364620249</v>
+        <v>24.61787454873416</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>74.87542825222252</v>
+        <v>24.95847608407417</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>75.91583568168454</v>
+        <v>25.30527856056151</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>76.97510996014428</v>
+        <v>25.65836998671476</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>78.05352276993187</v>
+        <v>26.01784092331063</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>79.15135373678469</v>
+        <v>26.38378457892823</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>80.26889070708104</v>
+        <v>26.75629690236035</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>81.40643001496383</v>
+        <v>27.13547667165461</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>82.56427673863661</v>
+        <v>27.52142557954554</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>83.7427449449433</v>
+        <v>27.9142483149811</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>84.94215792163399</v>
+        <v>28.31405264054467</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>86.16284839633327</v>
+        <v>28.72094946544442</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>87.40515874147786</v>
+        <v>29.13505291382596</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>88.66944116449743</v>
+        <v>29.55648038816581</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>89.95605788205069</v>
+        <v>29.98535262735023</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>91.26538127784904</v>
+        <v>30.42179375928302</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>92.59779404284822</v>
+        <v>30.86593134761608</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>93.95368929694838</v>
+        <v>31.31789643231613</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>95.33347069134192</v>
+        <v>31.77782356378064</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>96.73755249035678</v>
+        <v>32.24585083011893</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>98.16635963192584</v>
+        <v>32.72211987730861</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>99.62032776548584</v>
+        <v>33.20677592182862</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>101.0999032663368</v>
+        <v>33.69996775544561</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>102.6055432252979</v>
+        <v>34.20184774176597</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>104.1377154124774</v>
+        <v>34.71257180415914</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>105.6968982140834</v>
+        <v>35.23229940469447</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>107.28358054095</v>
+        <v>35.76119351365001</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>108.8982617076258</v>
+        <v>36.29942056920859</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>110.5414512806975</v>
+        <v>36.84715042689917</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>112.2136688951169</v>
+        <v>37.40455629837231</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>113.9154440371462</v>
+        <v>37.97181467904874</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>115.6473157926198</v>
+        <v>38.54910526420661</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>117.4098325591288</v>
+        <v>39.13661085304292</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>119.2035517207537</v>
+        <v>39.73451724025122</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>121.0290392839769</v>
+        <v>40.34301309465896</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>122.8868694732388</v>
+        <v>40.96228982441294</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>124.7776242848895</v>
+        <v>41.5925414282965</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>126.7018929979564</v>
+        <v>42.23396433265214</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>128.6602716403932</v>
+        <v>42.88675721346439</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>130.6533624093523</v>
+        <v>43.55112080311744</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>132.6817730440673</v>
+        <v>44.22725768135577</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>134.7461161499665</v>
+        <v>44.91537204998883</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>136.8470084727387</v>
+        <v>45.61566949091289</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>138.9850701208104</v>
+        <v>46.32835670693682</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>141.1609237352251</v>
+        <v>47.05364124507505</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>143.3751936055117</v>
+        <v>47.79173120183723</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>145.6285047304173</v>
+        <v>48.5428349101391</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>147.9214818224108</v>
+        <v>49.30716060747025</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>150.2547482550233</v>
+        <v>50.08491608500776</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>152.628924951993</v>
+        <v>50.876308317331</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>155.044629217401</v>
+        <v>51.68154307246702</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1557.230425056231</v>
+        <v>519.0768083520771</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1581.953819687784</v>
+        <v>527.3179398959282</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1607.105768945606</v>
+        <v>535.701922981869</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1632.692105458231</v>
+        <v>544.2307018194106</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1658.718559308621</v>
+        <v>552.9061864362071</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1685.19074288064</v>
+        <v>561.7302476268802</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1712.114135109654</v>
+        <v>570.7047117032183</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1739.494065141513</v>
+        <v>579.8313550471712</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1767.335695407405</v>
+        <v>589.1118984691352</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1795.644004128257</v>
+        <v>598.5480013760858</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1824.423767260239</v>
+        <v>608.1412557534134</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1853.679539897146</v>
+        <v>617.8931799657156</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1883.415637151914</v>
+        <v>627.8052123839717</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1913.636114538706</v>
+        <v>637.8787048462357</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1944.344747881518</v>
+        <v>648.1149159605063</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1975.54501278202</v>
+        <v>658.5150042606737</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2007.240063677284</v>
+        <v>669.0800212257617</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2039.432712527202</v>
+        <v>679.8109041757342</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2072.12540717502</v>
+        <v>690.7084690583401</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2105.320209423036</v>
+        <v>701.7734031410122</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2139.018772878786</v>
+        <v>713.0062576262624</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2173.222320621685</v>
+        <v>724.4074402072287</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2207.931622755144</v>
+        <v>735.9772075850483</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2243.14697390229</v>
+        <v>747.7156579674304</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2278.868170717373</v>
+        <v>759.622723572458</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2315.094489485177</v>
+        <v>771.6981631617259</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2351.824663884406</v>
+        <v>783.9415546281356</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2389.056862998216</v>
+        <v>796.3522876660725</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2426.788669657757</v>
+        <v>808.929556552586</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2465.01705920924</v>
+        <v>821.6723530697468</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2503.738378797646</v>
+        <v>834.5794595992154</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2542.948327267606</v>
+        <v>847.6494424225357</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2582.641935781254</v>
+        <v>860.8806452604182</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2622.813549259277</v>
+        <v>874.2711830864259</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2663.456808753931</v>
+        <v>887.8189362513104</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2704.564634863722</v>
+        <v>901.5215449545743</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2746.129212302781</v>
+        <v>915.3764041009274</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2788.141975743617</v>
+        <v>929.3806585812059</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2830.593597044925</v>
+        <v>943.5311990149755</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2873.473973984824</v>
+        <v>957.8246579949417</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2916.772220618101</v>
+        <v>972.2574068727008</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2960.476659372951</v>
+        <v>986.8255531243175</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3004.574815007582</v>
+        <v>1001.524938335861</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3049.053410537188</v>
+        <v>1016.35113684573</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3093.89836525289</v>
+        <v>1031.299455084297</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3139.09479493418</v>
+        <v>1046.364931644727</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3184.627014372192</v>
+        <v>1061.542338124064</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3230.47854229763</v>
+        <v>1076.826180765877</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3276.632108820994</v>
+        <v>1092.210702940332</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3323.069665470624</v>
+        <v>1107.689888490209</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3369.772397920306</v>
+        <v>1123.257465973436</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3416.720741481904</v>
+        <v>1138.906913827302</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3463.894399437844</v>
+        <v>1154.631466479282</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3511.27236427366</v>
+        <v>1170.424121424554</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3558.832941865254</v>
+        <v>1186.277647288418</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3453.221499730157</v>
+        <v>1151.073833243389</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3499.044930005069</v>
+        <v>1166.348310001693</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3544.977224181869</v>
+        <v>1181.659074727293</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3590.995270183657</v>
+        <v>1196.998423394556</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3637.075457820953</v>
+        <v>1212.358485940321</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3683.193719410513</v>
+        <v>1227.731239803507</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3729.32557328129</v>
+        <v>1243.1085244271</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3775.446170117423</v>
+        <v>1258.482056705811</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3821.530342086577</v>
+        <v>1273.843447362196</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3867.552654687855</v>
+        <v>1289.184218229288</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3913.487461228112</v>
+        <v>1304.495820409374</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3959.308959840439</v>
+        <v>1319.76965328015</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>4004.991252925023</v>
+        <v>1334.997084308344</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>4050.508408895013</v>
+        <v>1350.169469631675</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>4095.834526089581</v>
+        <v>1365.278175363197</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>4135.028546987765</v>
+        <v>1378.342848995923</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>4179.831241578252</v>
+        <v>1393.277080526085</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>4224.366423026241</v>
+        <v>1408.122141008748</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>4268.609022179617</v>
+        <v>1422.869674059873</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>4312.534345664553</v>
+        <v>1437.511448554852</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>4356.118149133344</v>
+        <v>1452.039383044449</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>4399.336711391068</v>
+        <v>1466.44557046369</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>4442.166909179292</v>
+        <v>1480.722303059765</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>4484.586292389055</v>
+        <v>1494.862097463019</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>4526.573159467137</v>
+        <v>1508.85771982238</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5165.577232101753</v>
+        <v>1721.859077367255</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>5212.007654907699</v>
+        <v>1737.335884969237</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>5257.88130128706</v>
+        <v>1752.627100429024</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>5303.177864689868</v>
+        <v>1767.725954896627</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>5347.87830508022</v>
+        <v>1782.626101693411</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>5391.964929737391</v>
+        <v>1797.321643245801</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>5435.421472336408</v>
+        <v>1811.807157445474</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>5478.233170034509</v>
+        <v>1826.077723344841</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>5520.386838289389</v>
+        <v>1840.128946096467</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>5561.870943146411</v>
+        <v>1853.956981048808</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>6328.175550834291</v>
+        <v>2109.391850278095</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>6373.487733296329</v>
+        <v>2124.495911098774</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6418.016520300766</v>
+        <v>2139.338840100253</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6461.757090709728</v>
+        <v>2153.919030236574</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6504.706842960451</v>
+        <v>2168.235614320148</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6546.86545361344</v>
+        <v>2182.288484537811</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6588.234931142864</v>
+        <v>2196.078310380953</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6628.819664718776</v>
+        <v>2209.606554906256</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6668.626467767544</v>
+        <v>2222.875489255845</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>6707.664616068738</v>
+        <v>2235.888205356244</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>6438.739858296504</v>
+        <v>2146.246619432164</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>6474.569043250981</v>
+        <v>2158.189681083656</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>6509.705520220885</v>
+        <v>2169.901840073624</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>6544.167795918659</v>
+        <v>2181.389265306215</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>6577.976824007729</v>
+        <v>2192.658941335905</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>6611.156006080545</v>
+        <v>2203.71866869351</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>6643.731186091604</v>
+        <v>2214.57706203053</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>6675.73063803379</v>
+        <v>2225.243546011259</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>6707.185046700773</v>
+        <v>2235.728348900253</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>6738.127481317607</v>
+        <v>2246.042493772531</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>7269.996747820623</v>
+        <v>2423.332249273536</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>7302.248146028563</v>
+        <v>2434.08271534285</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>7334.071165154692</v>
+        <v>2444.690388384893</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>7365.511124953439</v>
+        <v>2455.170374984476</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>7396.615642543052</v>
+        <v>2465.538547514347</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>7427.434553673189</v>
+        <v>2475.811517891059</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>7458.019824783178</v>
+        <v>2486.006608261055</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>7488.425455600906</v>
+        <v>2496.141818533632</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>7518.707372037594</v>
+        <v>2506.235790679194</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>7548.923309117788</v>
+        <v>2516.307769705925</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>7579.132683710723</v>
+        <v>2526.377561236903</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>7609.396456794963</v>
+        <v>2536.465485598317</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>7639.776985041514</v>
+        <v>2546.592328347167</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>7670.337861460922</v>
+        <v>2556.779287153636</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>7701.143744920962</v>
+        <v>2567.047914973649</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>7732.260178337784</v>
+        <v>2577.420059445923</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>7763.753395367931</v>
+        <v>2587.917798455973</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>7795.690115483309</v>
+        <v>2598.563371827765</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>7828.137327331116</v>
+        <v>2609.379109110368</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>7861.162060335964</v>
+        <v>2620.387353445317</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>7894.831144570701</v>
+        <v>2631.610381523563</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>7929.210958963586</v>
+        <v>2643.070319654524</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>7964.367168017059</v>
+        <v>2654.789056005682</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>8000.364447258363</v>
+        <v>2666.788149086116</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>8037.266197784123</v>
+        <v>2679.088732594703</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>8075.134250314992</v>
+        <v>2691.71141677166</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>8114.028559341397</v>
+        <v>2704.676186447128</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>8154.006888015664</v>
+        <v>2718.002296005217</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>8195.124484624479</v>
+        <v>2731.708161541488</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>8237.43375158677</v>
+        <v>2745.811250528919</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>8280.983908079348</v>
+        <v>2760.327969359778</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>8325.82064756388</v>
+        <v>2775.273549187955</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>8371.985791632942</v>
+        <v>2790.661930544309</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>8419.516941771786</v>
+        <v>2806.505647257257</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>8468.447130798148</v>
+        <v>2822.815710266045</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>8518.804475916275</v>
+        <v>2839.601491972087</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>8570.611835505411</v>
+        <v>2856.870611835132</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>8623.886471887075</v>
+        <v>2874.628823962354</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>8678.639722544767</v>
+        <v>2892.879907514918</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>8734.876682362872</v>
+        <v>2911.625560787619</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>490.7905205817778</v>
+        <v>687.106728814489</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5912787348435472</v>
+        <v>0.8277902287809661</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>0.60088270077335</v>
+        <v>0.84123578108269</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6106981430067372</v>
+        <v>0.8549774002094321</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6207323426564608</v>
+        <v>0.8690252797190452</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6309928764599054</v>
+        <v>0.8833900270438676</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>0.641487625642628</v>
+        <v>0.8980826758996793</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6522247847187151</v>
+        <v>0.9131146986062012</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6632128701982591</v>
+        <v>0.9284980182775627</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6744607291617704</v>
+        <v>0.9442450208264785</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6859775476745481</v>
+        <v>0.9603685667443674</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6977728590049985</v>
+        <v>0.9768820026069979</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7098565515999273</v>
+        <v>0.9937991722398982</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7222388767892439</v>
+        <v>1.011134427504941</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7349304561657257</v>
+        <v>1.028902638632016</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>0.747942288607618</v>
+        <v>1.047119204050665</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7612857568885594</v>
+        <v>1.065800059643983</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7749726338342581</v>
+        <v>1.084961687367961</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7890150879758422</v>
+        <v>1.104621123166179</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8034256886448529</v>
+        <v>1.124795964102794</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8182174104672729</v>
+        <v>1.145504374654182</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8334036371934092</v>
+        <v>1.166765092070773</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8489981648156802</v>
+        <v>1.188597430741952</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8650152039192862</v>
+        <v>1.211021285487001</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8814693812031512</v>
+        <v>1.234057133684412</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8983757401229091</v>
+        <v>1.257726036172073</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9157497405909039</v>
+        <v>1.282049636827265</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9336072576788504</v>
+        <v>1.307050160750391</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9519645792668711</v>
+        <v>1.332750410973619</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9708384025751345</v>
+        <v>1.359173763605188</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>0.990245829526373</v>
+        <v>1.386344161336922</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1.010204360879683</v>
+        <v>1.414286105231557</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1.030731889078446</v>
+        <v>1.443024644709824</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1.051846689760149</v>
+        <v>1.472585365664208</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1.073567411870949</v>
+        <v>1.502994376619328</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1.095913066337413</v>
+        <v>1.534278292872379</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1.11890301323925</v>
+        <v>1.56646421853495</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1.142556947443323</v>
+        <v>1.599579726420652</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1.166894882648207</v>
+        <v>1.63365283570749</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1.191937133800153</v>
+        <v>1.668711987320214</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1.217704297838353</v>
+        <v>1.704786016973694</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1.244217232744652</v>
+        <v>1.741904125842513</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1.271497034852294</v>
+        <v>1.780095848793212</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1.299565014402043</v>
+        <v>1.81939102016286</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1.328442669314724</v>
+        <v>1.859819737040614</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1.358151657165736</v>
+        <v>1.90141232003203</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1.38871376535811</v>
+        <v>1.944199271501354</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1.420150879476868</v>
+        <v>1.988211231267616</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1.452484949835243</v>
+        <v>2.03347892976934</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1.485737956219846</v>
+        <v>2.080033138707785</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1.51993187084372</v>
+        <v>2.127904619181208</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1.555088619535707</v>
+        <v>2.17712406734999</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1.591230041188746</v>
+        <v>2.227722057664244</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1.628377845513007</v>
+        <v>2.27972898371821</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1.666553569126481</v>
+        <v>2.333174996777073</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1.705778530045118</v>
+        <v>2.388089942063166</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1.746073780633788</v>
+        <v>2.444503292887304</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1.787460059077915</v>
+        <v>2.502444082709081</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1.829957739464708</v>
+        <v>2.561940835250591</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1.873586780557058</v>
+        <v>2.623021492779881</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1.918366673353379</v>
+        <v>2.68571334269473</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1.964316387538488</v>
+        <v>2.750042942553883</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>2.011454316946183</v>
+        <v>2.816036043724657</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>2.059798224139101</v>
+        <v>2.883717513794742</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>2.109365184258233</v>
+        <v>2.953111257961527</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>2.160171528259446</v>
+        <v>3.024240139563224</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>2.212232785699853</v>
+        <v>3.097125899979794</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>2.26556362722497</v>
+        <v>3.171789078114958</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>2.320177806917175</v>
+        <v>3.248248929684045</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>2.376088104677939</v>
+        <v>3.326523346549115</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>2.433306268827562</v>
+        <v>3.406628776358586</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>2.491842959096413</v>
+        <v>3.488580142734979</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>2.551707690209678</v>
+        <v>3.572390766293549</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>2.612908776255806</v>
+        <v>3.658072286758129</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>2.675453276043276</v>
+        <v>3.745634586460587</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>2.739346939651713</v>
+        <v>3.835085715512399</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>2.80459415639059</v>
+        <v>3.926431818946826</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>2.871197904374575</v>
+        <v>4.019677066124405</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>2.939159701938453</v>
+        <v>4.114823582713834</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>3.008479561105042</v>
+        <v>4.21187138554706</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>3.07915594332809</v>
+        <v>4.310818320659326</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>3.151185717729073</v>
+        <v>4.411660004820702</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>3.224564122047659</v>
+        <v>4.514389770866722</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>3.299284726521479</v>
+        <v>4.61899861713007</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>3.375339400913191</v>
+        <v>4.725475161278467</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>3.452718284887875</v>
+        <v>4.833805598843025</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>3.531409761960302</v>
+        <v>4.943973666744423</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>3.611400437205604</v>
+        <v>5.055960612087846</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>3.692675118921624</v>
+        <v>5.169745166490274</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>3.775216804447449</v>
+        <v>5.285303526226429</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>3.859006670303507</v>
+        <v>5.40260933842491</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>3.944024066824615</v>
+        <v>5.521633693554461</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>4.030246517451481</v>
+        <v>5.642345124432073</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>4.117649722824559</v>
+        <v>5.764709611954384</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>4.20620756981239</v>
+        <v>5.888690597737346</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>4.295892145604722</v>
+        <v>6.014249003846611</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>4.386673756972759</v>
+        <v>6.141343259761864</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>4.47852095479317</v>
+        <v>6.269929336710439</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>4.571400563912825</v>
+        <v>6.399960789477954</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>4.665277718412121</v>
+        <v>6.53138880577697</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>4.76011590232192</v>
+        <v>6.664162263250688</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>4.855876995807179</v>
+        <v>6.798227794130051</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>4.952521326831096</v>
+        <v>6.933529857563536</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>5.050007728297599</v>
+        <v>7.070010819616638</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>5.148293600623666</v>
+        <v>7.207611040873132</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>5.247334979711979</v>
+        <v>7.34626897159677</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>5.347086610236834</v>
+        <v>7.485921254331569</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>5.447502024166845</v>
+        <v>7.626502833833584</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>5.548533624407865</v>
+        <v>7.767947074171011</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>5.650132773434919</v>
+        <v>7.910185882808887</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>5.752249886768623</v>
+        <v>8.053149841476072</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>5.854834531116542</v>
+        <v>8.196768343563159</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>5.957835526999544</v>
+        <v>8.340969737799362</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>6.061201055644198</v>
+        <v>8.485681477901878</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>6.164878769916626</v>
+        <v>8.630830277883277</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>6.26881590904974</v>
+        <v>8.776342272669634</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>6.372959416899862</v>
+        <v>8.922143183659808</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>6.477256063444798</v>
+        <v>9.068158488822718</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>6.581652569231366</v>
+        <v>9.214313596923914</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>6.686095732452942</v>
+        <v>9.360534025434118</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>6.790532558330756</v>
+        <v>9.506745581663058</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>6.894910390453961</v>
+        <v>9.652874546635546</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>6.99917704372593</v>
+        <v>9.798847861216302</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>7.103280938549647</v>
+        <v>9.944593313969506</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>7.207171235877746</v>
+        <v>10.09003973022884</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>7.310797972739447</v>
+        <v>10.23511716183523</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>7.414112197859498</v>
+        <v>10.3797570770033</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>7.517066106962818</v>
+        <v>10.52389254974794</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>7.619613177376554</v>
+        <v>10.66745844832717</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>7.721708301508198</v>
+        <v>10.81039162211148</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>7.823307918814594</v>
+        <v>10.95263108634043</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>7.924370145844264</v>
+        <v>11.09411820418197</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>8.024854903949912</v>
+        <v>11.23479686552988</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>8.124724044289559</v>
+        <v>11.37461366200538</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>8.223941469695797</v>
+        <v>11.51351805757412</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>8.322473253056064</v>
+        <v>11.65146255427849</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>8.420287751807964</v>
+        <v>11.78840285253115</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>8.517355718184522</v>
+        <v>11.92429800545833</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>8.61365040486433</v>
+        <v>12.05911056681006</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>8.709147665672511</v>
+        <v>12.19280673194151</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>8.803826051008643</v>
+        <v>12.3253564714121</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>8.897666897697491</v>
+        <v>12.45673365677649</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>8.990654412954127</v>
+        <v>12.58691617813578</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>9.082775752204386</v>
+        <v>12.71588605308614</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>9.174021090488557</v>
+        <v>12.84362952668398</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>9.26438368723322</v>
+        <v>12.97013716212651</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>9.353859944156799</v>
+        <v>13.09540392181952</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>9.442449456139483</v>
+        <v>13.21942923859528</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>9.53015505488319</v>
+        <v>13.34221707683647</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>9.616982845214144</v>
+        <v>13.4637759832998</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>9.702942233930226</v>
+        <v>13.58411912750232</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>9.788045951082951</v>
+        <v>13.70326433151613</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>9.872310063649476</v>
+        <v>13.82123408910927</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>9.955753981541902</v>
+        <v>13.93805557415866</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>10.03840045595048</v>
+        <v>14.05376063833067</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>10.12027557004516</v>
+        <v>14.16838579806322</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>10.20140872205664</v>
+        <v>14.2819722108793</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>10.28183260083388</v>
+        <v>14.39456564116744</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>10.36158315395103</v>
+        <v>14.50621641553144</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>10.44069954849999</v>
+        <v>14.61697936789999</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>10.5192241247096</v>
+        <v>14.72691377459344</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>10.59720234256499</v>
+        <v>14.83608327959098</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>10.6746827216267</v>
+        <v>14.94455581027738</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>10.75171677425854</v>
+        <v>15.05240348396196</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>10.8283589325202</v>
+        <v>15.15970250552827</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>10.90466646898034</v>
+        <v>15.26653305657247</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>10.98069941173014</v>
+        <v>15.3729791764222</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>11.0565204539058</v>
+        <v>15.47912863546811</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>11.13219485804118</v>
+        <v>15.58507280125765</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>11.20779035558065</v>
+        <v>15.69090649781291</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>11.28337704191025</v>
+        <v>15.79672785867436</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>11.35902726727069</v>
+        <v>15.90263817417896</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>11.43481552393106</v>
+        <v>16.00874173350348</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>11.51081833000831</v>
+        <v>16.11514566201163</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>11.58711411033557</v>
+        <v>16.22195975446979</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>11.66378307478227</v>
+        <v>16.32929630469518</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>11.74090709443497</v>
+        <v>16.43726993220896</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>11.81856957605927</v>
+        <v>16.54599740648298</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>11.89685533525571</v>
+        <v>16.65559746935799</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>11.97585046873491</v>
+        <v>16.76619065622888</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>12.0556422261289</v>
+        <v>16.87789911658045</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>12.13631888175335</v>
+        <v>16.99084643445468</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>12.21796960673559</v>
+        <v>17.10515744942983</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>12.30068434192393</v>
+        <v>17.22095807869351</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>12.38455367196896</v>
+        <v>17.33837514075654</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>12.46966870097843</v>
+        <v>17.45753618136981</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>12.55612093013522</v>
+        <v>17.57856930218931</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>12.64400213763733</v>
+        <v>17.70160299269226</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>12.73340426134627</v>
+        <v>17.82676596588478</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>12.82441928447266</v>
+        <v>17.95418699826172</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>12.91713912464376</v>
+        <v>18.08399477450127</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>13.01165552668682</v>
+        <v>18.21631773736155</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>13.10805995940818</v>
+        <v>18.35128394317146</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>13.20644351667807</v>
+        <v>18.4890209233493</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>13.30689682308894</v>
+        <v>18.62965555232452</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>13.40950994443411</v>
+        <v>18.77331392220775</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>13.51437230324693</v>
+        <v>18.9201212245457</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>13.62157259961923</v>
+        <v>19.07020163946692</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>13.73119873748643</v>
+        <v>19.223678232481</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>13.84333775656838</v>
+        <v>19.38067285919573</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>13.95807577011418</v>
+        <v>19.54130607815985</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>14.07550104946528</v>
+        <v>19.70570146925139</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>14.19569175818473</v>
+        <v>19.87396846145862</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>14.3187337364225</v>
+        <v>20.0462272309915</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>14.44470889111638</v>
+        <v>20.22259244756293</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>14.57369798271819</v>
+        <v>20.40317717580547</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>14.70578059994922</v>
+        <v>20.5880928399289</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>14.84103514090713</v>
+        <v>20.77744919726998</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>14.9795388005181</v>
+        <v>20.97135432072534</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>15.12136756431798</v>
+        <v>21.16991459004517</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>15.26659620852763</v>
+        <v>21.37323469193868</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>15.41529830636338</v>
+        <v>21.58141762890874</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>15.56754624051846</v>
+        <v>21.79456473672584</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>15.72341122173584</v>
+        <v>22.01277571043017</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>15.88296331335686</v>
+        <v>22.2361486386996</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>16.04627146174368</v>
+        <v>22.46478004644115</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>16.21340353244703</v>
+        <v>22.69876494542584</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>16.38442635196911</v>
+        <v>22.93819689275675</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>16.55940575497731</v>
+        <v>23.18316805696823</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>16.7384066368176</v>
+        <v>23.43376929154464</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>16.92149301110764</v>
+        <v>23.6900902155507</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>17.10872807229526</v>
+        <v>23.95221930121336</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>17.30017426292195</v>
+        <v>24.22024396809072</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>17.49589334545368</v>
+        <v>24.49425068363515</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>17.6959464784021</v>
+        <v>24.77432506976294</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>17.90039429661113</v>
+        <v>25.06055201525558</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>18.10929699540192</v>
+        <v>25.35301579356269</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>18.32271441841614</v>
+        <v>25.65180018578259</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>18.54070614889853</v>
+        <v>25.95698860845795</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>18.76333160421335</v>
+        <v>26.26866424589868</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>18.99065013332264</v>
+        <v>26.5869101866517</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>19.22272111703271</v>
+        <v>26.9118095638458</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>19.45960407075673</v>
+        <v>27.24344569905941</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>19.70135874953516</v>
+        <v>27.58190224934922</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>19.94804525511276</v>
+        <v>27.92726335715787</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>20.19972414480288</v>
+        <v>28.27961380272404</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>20.45645654191086</v>
+        <v>28.63903915867521</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>20.7183042474848</v>
+        <v>29.00562594647872</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>20.98532985314729</v>
+        <v>29.3794617944062</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>21.25759685476186</v>
+        <v>29.76063559666661</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>21.53516976672925</v>
+        <v>30.14923767342095</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>21.81811423664519</v>
+        <v>30.54535993130327</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>22.10649716009372</v>
+        <v>30.94909602413122</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>22.4003867953659</v>
+        <v>31.36054151351227</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>22.69985287783218</v>
+        <v>31.77979402896505</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>23.00496673377788</v>
+        <v>32.20695342728904</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>23.31580139343883</v>
+        <v>32.64212195081436</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>23.63243170302432</v>
+        <v>33.08540438423405</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>23.95493443549146</v>
+        <v>33.53690820968804</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>24.28338839984861</v>
+        <v>33.99674375978805</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>24.61787454873416</v>
+        <v>34.46502436822783</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>24.95847608407417</v>
+        <v>34.94186651770384</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>25.30527856056151</v>
+        <v>35.42738998478612</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>25.65836998671476</v>
+        <v>35.92171798140066</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>26.01784092331063</v>
+        <v>36.42497729263488</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>26.38378457892823</v>
+        <v>36.93729841049952</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>26.75629690236035</v>
+        <v>37.45881566330449</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>27.13547667165461</v>
+        <v>37.98966734031646</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>27.52142557954554</v>
+        <v>38.52999581136375</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>27.9142483149811</v>
+        <v>39.07994764097354</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>28.31405264054467</v>
+        <v>39.63967369676253</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>28.72094946544442</v>
+        <v>40.20932925162219</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>29.13505291382596</v>
+        <v>40.78907407935634</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>29.55648038816581</v>
+        <v>41.37907254343213</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>29.98535262735023</v>
+        <v>41.97949367829032</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>30.42179375928302</v>
+        <v>42.59051126299622</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>30.86593134761608</v>
+        <v>43.2123038866625</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>31.31789643231613</v>
+        <v>43.84505500524258</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>31.77782356378064</v>
+        <v>44.4889529892929</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>32.24585083011893</v>
+        <v>45.1441911621665</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>32.72211987730861</v>
+        <v>45.81096782823207</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>33.20677592182862</v>
+        <v>46.48948629056006</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>33.69996775544561</v>
+        <v>47.17995485762385</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>34.20184774176597</v>
+        <v>47.88258683847236</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>34.71257180415914</v>
+        <v>48.5976005258228</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>35.23229940469447</v>
+        <v>49.32521916657225</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>35.76119351365001</v>
+        <v>50.06567091911</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>36.29942056920859</v>
+        <v>50.81918879689203</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>36.84715042689917</v>
+        <v>51.58601059765883</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>37.40455629837231</v>
+        <v>52.36637881772123</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>37.97181467904874</v>
+        <v>53.16054055066824</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>38.54910526420661</v>
+        <v>53.96874736988926</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>39.13661085304292</v>
+        <v>54.79125519426009</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>39.73451724025122</v>
+        <v>55.62832413635171</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>40.34301309465896</v>
+        <v>56.48021833252255</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>40.96228982441294</v>
+        <v>57.34720575417812</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>41.5925414282965</v>
+        <v>58.2295579996151</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>42.23396433265214</v>
+        <v>59.127550065713</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>42.88675721346439</v>
+        <v>60.04146009885015</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>43.55112080311744</v>
+        <v>60.97156912436442</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>44.22725768135577</v>
+        <v>61.91816075389808</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>44.91537204998883</v>
+        <v>62.88152086998437</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>45.61566949091289</v>
+        <v>63.86193728727805</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>46.32835670693682</v>
+        <v>64.85969938971154</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>47.05364124507505</v>
+        <v>65.87509774310507</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>47.79173120183723</v>
+        <v>66.90842368257212</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>48.5428349101391</v>
+        <v>67.95996887419474</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>49.30716060747025</v>
+        <v>69.03002485045836</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>50.08491608500776</v>
+        <v>70.11888251901087</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>50.876308317331</v>
+        <v>71.2268316442634</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>51.68154307246702</v>
+        <v>72.35416030145382</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>519.0768083520771</v>
+        <v>726.7075316929079</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>527.3179398959282</v>
+        <v>738.2451158542996</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>535.701922981869</v>
+        <v>749.9826921746164</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>544.2307018194106</v>
+        <v>761.9229825471747</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>552.9061864362071</v>
+        <v>774.0686610106899</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>561.7302476268802</v>
+        <v>786.4223466776322</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>570.7047117032183</v>
+        <v>798.9865963845056</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>579.8313550471712</v>
+        <v>811.7638970660396</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>589.1118984691352</v>
+        <v>824.7566578567892</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>598.5480013760858</v>
+        <v>837.9672019265201</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>608.1412557534134</v>
+        <v>851.3977580547786</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>617.8931799657156</v>
+        <v>865.0504519520017</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>627.8052123839717</v>
+        <v>878.9272973375603</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>637.8787048462357</v>
+        <v>893.0301867847298</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>648.1149159605063</v>
+        <v>907.3608823447087</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>658.5150042606737</v>
+        <v>921.921005964943</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>669.0800212257617</v>
+        <v>936.7120297160662</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>679.8109041757342</v>
+        <v>951.7352658460278</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>690.7084690583401</v>
+        <v>966.9918566816762</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>701.7734031410122</v>
+        <v>982.4827643974169</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>713.0062576262624</v>
+        <v>998.2087606767673</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>724.4074402072287</v>
+        <v>1014.17041629012</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>735.9772075850483</v>
+        <v>1030.368090619068</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>747.7156579674304</v>
+        <v>1046.801921154402</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>759.622723572458</v>
+        <v>1063.471813001441</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>771.6981631617259</v>
+        <v>1080.377428426416</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>783.9415546281356</v>
+        <v>1097.51817647939</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>796.3522876660725</v>
+        <v>1114.893202732501</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>808.929556552586</v>
+        <v>1132.50137917362</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>821.6723530697468</v>
+        <v>1150.341294297645</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>834.5794595992154</v>
+        <v>1168.411243438901</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>847.6494424225357</v>
+        <v>1186.70921939155</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>860.8806452604182</v>
+        <v>1205.232903364585</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>874.2711830864259</v>
+        <v>1223.979656320996</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>887.8189362513104</v>
+        <v>1242.946510751835</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>901.5215449545743</v>
+        <v>1262.130162936404</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>915.3764041009274</v>
+        <v>1281.526965741298</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>929.3806585812059</v>
+        <v>1301.132922013688</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>943.5311990149755</v>
+        <v>1320.943678620966</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>957.8246579949417</v>
+        <v>1340.954521192918</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>972.2574068727008</v>
+        <v>1361.160369621781</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>986.8255531243175</v>
+        <v>1381.555774374044</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1001.524938335861</v>
+        <v>1402.134913670205</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1016.35113684573</v>
+        <v>1422.891591584021</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1031.299455084297</v>
+        <v>1443.819237118016</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1046.364931644727</v>
+        <v>1464.910904302618</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1061.542338124064</v>
+        <v>1486.15927337369</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1076.826180765877</v>
+        <v>1507.556653072228</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1092.210702940332</v>
+        <v>1529.094984116464</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1107.689888490209</v>
+        <v>1550.765843886292</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1123.257465973436</v>
+        <v>1572.56045236281</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1138.906913827302</v>
+        <v>1594.469679358222</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1154.631466479282</v>
+        <v>1616.484053070994</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1170.424121424554</v>
+        <v>1638.593769994375</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1186.277647288418</v>
+        <v>1660.788706203786</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1151.073833243389</v>
+        <v>1611.503366540744</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1166.348310001693</v>
+        <v>1632.887634002369</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1181.659074727293</v>
+        <v>1654.322704618209</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1196.998423394556</v>
+        <v>1675.797792752378</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1212.358485940321</v>
+        <v>1697.301880316449</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1227.731239803507</v>
+        <v>1718.82373572491</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1243.1085244271</v>
+        <v>1740.35193419794</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1258.482056705811</v>
+        <v>1761.874879388135</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1273.843447362196</v>
+        <v>1783.380826307074</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1289.184218229288</v>
+        <v>1804.857905521003</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1304.495820409374</v>
+        <v>1826.294148573123</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1319.76965328015</v>
+        <v>1847.677514592209</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1334.997084308344</v>
+        <v>1868.995918031682</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1350.169469631675</v>
+        <v>1890.237257484344</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1365.278175363197</v>
+        <v>1911.389445508476</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1378.342848995923</v>
+        <v>1929.679988594291</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1393.277080526085</v>
+        <v>1950.587912736519</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1408.122141008748</v>
+        <v>1971.370997412247</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1422.869674059873</v>
+        <v>1992.017543683822</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>1437.511448554852</v>
+        <v>2012.516027976792</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>1452.039383044449</v>
+        <v>2032.855136262228</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>1466.44557046369</v>
+        <v>2053.023798649166</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>1480.722303059765</v>
+        <v>2073.01122428367</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>1494.862097463019</v>
+        <v>2092.806936448227</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>1508.85771982238</v>
+        <v>2112.400807751332</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>1721.859077367255</v>
+        <v>3181.995574974688</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>1737.335884969237</v>
+        <v>3210.596715423151</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>1752.627100429024</v>
+        <v>3238.854881592837</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1767.725954896627</v>
+        <v>3266.757564648967</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1782.626101693411</v>
+        <v>3294.293035929424</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>1797.321643245801</v>
+        <v>3321.450396718241</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>1811.807157445474</v>
+        <v>3348.219626959235</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>1826.077723344841</v>
+        <v>3374.591632741266</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>1840.128946096467</v>
+        <v>3400.558292386272</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>1853.956981048808</v>
+        <v>3426.112500978198</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2109.391850278095</v>
+        <v>3248.463449428266</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2124.495911098774</v>
+        <v>3271.723703092112</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2139.338840100253</v>
+        <v>3294.58181375439</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2153.919030236574</v>
+        <v>3317.035306564323</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2168.235614320148</v>
+        <v>3339.082846053028</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2182.288484537811</v>
+        <v>3360.724266188229</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2196.078310380953</v>
+        <v>3381.960597986667</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2209.606554906256</v>
+        <v>3402.794094555635</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2222.875489255845</v>
+        <v>3423.228253454002</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2235.888205356244</v>
+        <v>3443.267836248615</v>
       </c>
     </row>
     <row r="403">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>687.106728814489</v>
+        <v>1472.371561745333</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8277902287809661</v>
+        <v>1.773836204530642</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>0.84123578108269</v>
+        <v>1.80264810232005</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8549774002094321</v>
+        <v>1.832094429020211</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8690252797190452</v>
+        <v>1.862197027969382</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8833900270438676</v>
+        <v>1.892978629379716</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8980826758996793</v>
+        <v>1.924462876927884</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9131146986062012</v>
+        <v>1.956674354156145</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9284980182775627</v>
+        <v>1.989638610594777</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9442450208264785</v>
+        <v>2.023382187485311</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9603685667443674</v>
+        <v>2.057932643023644</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9768820026069979</v>
+        <v>2.093318577014995</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9937991722398982</v>
+        <v>2.129569654799782</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1.011134427504941</v>
+        <v>2.166716630367732</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1.028902638632016</v>
+        <v>2.204791368497177</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1.047119204050665</v>
+        <v>2.243826865822854</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1.065800059643983</v>
+        <v>2.283857270665678</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1.084961687367961</v>
+        <v>2.324917901502774</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1.104621123166179</v>
+        <v>2.367045263927526</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1.124795964102794</v>
+        <v>2.410277065934558</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1.145504374654182</v>
+        <v>2.454652231401819</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1.166765092070773</v>
+        <v>2.500210911580227</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1.188597430741952</v>
+        <v>2.546994494447041</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1.211021285487001</v>
+        <v>2.595045611757858</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1.234057133684412</v>
+        <v>2.644408143609454</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1.257726036172073</v>
+        <v>2.695127220368728</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1.282049636827265</v>
+        <v>2.747249221772711</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1.307050160750391</v>
+        <v>2.800821773036551</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1.332750410973619</v>
+        <v>2.855893737800613</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1.359173763605188</v>
+        <v>2.912515207725404</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1.386344161336922</v>
+        <v>2.970737488579119</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1.414286105231557</v>
+        <v>3.03061308263905</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1.443024644709824</v>
+        <v>3.092195667235337</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1.472585365664208</v>
+        <v>3.155540069280446</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1.502994376619328</v>
+        <v>3.220702235612845</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1.534278292872379</v>
+        <v>3.28773919901224</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1.56646421853495</v>
+        <v>3.356709039717749</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1.599579726420652</v>
+        <v>3.427670842329968</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1.63365283570749</v>
+        <v>3.500684647944621</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1.668711987320214</v>
+        <v>3.575811401400459</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1.704786016973694</v>
+        <v>3.653112893515058</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1.741904125842513</v>
+        <v>3.732651698233957</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1.780095848793212</v>
+        <v>3.814491104556883</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1.81939102016286</v>
+        <v>3.898695043206128</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1.859819737040614</v>
+        <v>3.985328007944173</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1.90141232003203</v>
+        <v>4.074454971497207</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1.944199271501354</v>
+        <v>4.16614129607433</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1.988211231267616</v>
+        <v>4.260452638430605</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>2.03347892976934</v>
+        <v>4.357454849505729</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>2.080033138707785</v>
+        <v>4.457213868659538</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>2.127904619181208</v>
+        <v>4.559795612531159</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>2.17712406734999</v>
+        <v>4.665265858607121</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>2.227722057664244</v>
+        <v>4.773690123566237</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>2.27972898371821</v>
+        <v>4.885133536539022</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>2.333174996777073</v>
+        <v>4.999660707379442</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>2.388089942063166</v>
+        <v>5.117335590135355</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>2.444503292887304</v>
+        <v>5.238221341901364</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>2.502444082709081</v>
+        <v>5.362380177233745</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>2.561940835250591</v>
+        <v>5.489873218394123</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>2.623021492779881</v>
+        <v>5.620760341671173</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>2.68571334269473</v>
+        <v>5.755100020060135</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>2.750042942553883</v>
+        <v>5.892949162615463</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>2.816036043724657</v>
+        <v>6.034362950838549</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>2.883717513794742</v>
+        <v>6.179394672417303</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>2.953111257961527</v>
+        <v>6.328095552774701</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>3.024240139563224</v>
+        <v>6.480514584778338</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>3.097125899979794</v>
+        <v>6.636698357099558</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>3.171789078114958</v>
+        <v>6.79669088167491</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>3.248248929684045</v>
+        <v>6.960533420751524</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>3.326523346549115</v>
+        <v>7.128264314033818</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>3.406628776358586</v>
+        <v>7.299918806482684</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>3.488580142734979</v>
+        <v>7.475528877289239</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>3.572390766293549</v>
+        <v>7.655123070629034</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>3.658072286758129</v>
+        <v>7.838726328767418</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>3.745634586460587</v>
+        <v>8.026359828129829</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>3.835085715512399</v>
+        <v>8.21804081895514</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>3.926431818946826</v>
+        <v>8.413782469171769</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>4.019677066124405</v>
+        <v>8.613593713123725</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>4.114823582713834</v>
+        <v>8.817479105815357</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>4.21187138554706</v>
+        <v>9.025438683315127</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>4.310818320659326</v>
+        <v>9.23746782998427</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>4.411660004820702</v>
+        <v>9.453557153187218</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>4.514389770866722</v>
+        <v>9.673692366142975</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>4.61899861713007</v>
+        <v>9.897854179564435</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>4.725475161278467</v>
+        <v>10.12601820273957</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>4.833805598843025</v>
+        <v>10.35815485466362</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>4.943973666744423</v>
+        <v>10.59422928588091</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>5.055960612087846</v>
+        <v>10.83420131161681</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>5.169745166490274</v>
+        <v>11.07802535676487</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>5.285303526226429</v>
+        <v>11.32565041334235</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>5.40260933842491</v>
+        <v>11.57702001091052</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>5.521633693554461</v>
+        <v>11.83207220047384</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>5.642345124432073</v>
+        <v>12.09073955235444</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>5.764709611954384</v>
+        <v>12.35294916847368</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>5.888690597737346</v>
+        <v>12.61862270943717</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>6.014249003846611</v>
+        <v>12.88767643681417</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>6.141343259761864</v>
+        <v>13.16002127091828</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>6.269929336710439</v>
+        <v>13.43556286437951</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>6.399960789477954</v>
+        <v>13.71420169173847</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>6.53138880577697</v>
+        <v>13.99583315523637</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>6.664162263250688</v>
+        <v>14.28034770696576</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>6.798227794130051</v>
+        <v>14.56763098742154</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>6.933529857563536</v>
+        <v>14.85756398049329</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>7.070010819616638</v>
+        <v>15.1500231848928</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>7.207611040873132</v>
+        <v>15.444880801871</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>7.34626897159677</v>
+        <v>15.74200493913594</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>7.485921254331569</v>
+        <v>16.0412598307105</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>7.626502833833584</v>
+        <v>16.34250607250053</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>7.767947074171011</v>
+        <v>16.64560087322359</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>7.910185882808887</v>
+        <v>16.95039832030476</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>8.053149841476072</v>
+        <v>17.25674966030587</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>8.196768343563159</v>
+        <v>17.56450359334962</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>8.340969737799362</v>
+        <v>17.87350658099863</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>8.485681477901878</v>
+        <v>18.1836031669326</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>8.630830277883277</v>
+        <v>18.49463630974988</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>8.776342272669634</v>
+        <v>18.80644772714922</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>8.922143183659808</v>
+        <v>19.11887825069959</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>9.068158488822718</v>
+        <v>19.43176819033439</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>9.214313596923914</v>
+        <v>19.7449577076941</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>9.360534025434118</v>
+        <v>20.05828719735883</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>9.506745581663058</v>
+        <v>20.37159767499227</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>9.652874546635546</v>
+        <v>20.68473117136188</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>9.798847861216302</v>
+        <v>20.99753113117779</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>9.944593313969506</v>
+        <v>21.30984281564894</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>10.09003973022884</v>
+        <v>21.62151370763323</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>10.23511716183523</v>
+        <v>21.93239391821834</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>10.3797570770033</v>
+        <v>22.24233659357849</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>10.52389254974794</v>
+        <v>22.55119832088845</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>10.66745844832717</v>
+        <v>22.85883953212966</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>10.81039162211148</v>
+        <v>23.16512490452459</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>10.95263108634043</v>
+        <v>23.46992375644378</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>11.09411820418197</v>
+        <v>23.77311043753279</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>11.23479686552988</v>
+        <v>24.07456471184974</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>11.37461366200538</v>
+        <v>24.37417213286868</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>11.51351805757412</v>
+        <v>24.67182440908739</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>11.65146255427849</v>
+        <v>24.96741975916819</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>11.78840285253115</v>
+        <v>25.26086325542389</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>11.92429800545833</v>
+        <v>25.55206715455357</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>12.05911056681006</v>
+        <v>25.84095121459299</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>12.19280673194151</v>
+        <v>26.12744299701753</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>12.3253564714121</v>
+        <v>26.41147815302593</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>12.45673365677649</v>
+        <v>26.69300069309247</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>12.58691617813578</v>
+        <v>26.97196323886238</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>12.71588605308614</v>
+        <v>27.24832725661316</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>12.84362952668398</v>
+        <v>27.52206327146567</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>12.97013716212651</v>
+        <v>27.79315106169966</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>13.09540392181952</v>
+        <v>28.06157983247039</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>13.21942923859528</v>
+        <v>28.32734836841845</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>13.34221707683647</v>
+        <v>28.59046516464957</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>13.4637759832998</v>
+        <v>28.85094853564243</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>13.58411912750232</v>
+        <v>29.10882670179068</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>13.70326433151613</v>
+        <v>29.36413785324885</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>13.82123408910927</v>
+        <v>29.61693019094842</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>13.93805557415866</v>
+        <v>29.8672619446257</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>14.05376063833067</v>
+        <v>30.11520136785143</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>14.16838579806322</v>
+        <v>30.36082671013547</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>14.2819722108793</v>
+        <v>30.60422616616992</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>14.39456564116744</v>
+        <v>30.84549780250165</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>14.50621641553144</v>
+        <v>31.08474946185308</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>14.61697936789999</v>
+        <v>31.32209864549997</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>14.72691377459344</v>
+        <v>31.55767237412879</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>14.83608327959098</v>
+        <v>31.79160702769497</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>14.94455581027738</v>
+        <v>32.0240481648801</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>15.05240348396196</v>
+        <v>32.25515032277563</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>15.15970250552827</v>
+        <v>32.48507679756059</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>15.26653305657247</v>
+        <v>32.71399940694101</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>15.3729791764222</v>
+        <v>32.94209823519041</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>15.47912863546811</v>
+        <v>33.16956136171738</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>15.58507280125765</v>
+        <v>33.39658457412354</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>15.69090649781291</v>
+        <v>33.62337106674195</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>15.79672785867436</v>
+        <v>33.85013112573076</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>15.90263817417896</v>
+        <v>34.07708180181206</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>16.00874173350348</v>
+        <v>34.30444657179318</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>16.11514566201163</v>
+        <v>34.53245499002493</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>16.22195975446979</v>
+        <v>34.7613423310067</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>16.32929630469518</v>
+        <v>34.99134922434681</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>16.43726993220896</v>
+        <v>35.22272128330491</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>16.54599740648298</v>
+        <v>35.45570872817781</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>16.65559746935799</v>
+        <v>35.69056600576712</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>16.76619065622888</v>
+        <v>35.92755140620473</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>16.87789911658045</v>
+        <v>36.16692667838669</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>16.99084643445468</v>
+        <v>36.40895664526003</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>17.10515744942983</v>
+        <v>36.65390882020677</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>17.22095807869351</v>
+        <v>36.9020530257718</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>17.33837514075654</v>
+        <v>37.15366101590686</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>17.45753618136981</v>
+        <v>37.4090061029353</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>17.57856930218931</v>
+        <v>37.66836279040567</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>17.70160299269226</v>
+        <v>37.93200641291198</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>17.82676596588478</v>
+        <v>38.2002127840388</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>17.95418699826172</v>
+        <v>38.47325785341797</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>18.08399477450127</v>
+        <v>38.75141737393129</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>18.21631773736155</v>
+        <v>39.03496658006046</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>18.35128394317146</v>
+        <v>39.32417987822455</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>18.4890209233493</v>
+        <v>39.61933055003421</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>18.62965555232452</v>
+        <v>39.92069046926682</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>18.77331392220775</v>
+        <v>40.22852983330232</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>18.9201212245457</v>
+        <v>40.54311690974077</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>19.07020163946692</v>
+        <v>40.86471779885768</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>19.223678232481</v>
+        <v>41.19359621245928</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>19.38067285919573</v>
+        <v>41.53001326970514</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>19.54130607815985</v>
+        <v>41.87422731034254</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>19.70570146925139</v>
+        <v>42.22650314839584</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>19.87396846145862</v>
+        <v>42.58707527455417</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>20.0462272309915</v>
+        <v>42.95620120926749</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>20.22259244756293</v>
+        <v>43.33412667334913</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>20.40317717580547</v>
+        <v>43.72109394815457</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>20.5880928399289</v>
+        <v>44.11734179984764</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>20.77744919726998</v>
+        <v>44.52310542272139</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>20.97135432072534</v>
+        <v>44.9386164015543</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>21.16991459004517</v>
+        <v>45.36410269295394</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>21.37323469193868</v>
+        <v>45.79978862558288</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>21.58141762890874</v>
+        <v>46.24589491909015</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>21.79456473672584</v>
+        <v>46.70263872155537</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>22.01277571043017</v>
+        <v>47.1702336652075</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>22.2361486386996</v>
+        <v>47.64888994007057</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>22.46478004644115</v>
+        <v>48.13881438523104</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>22.69876494542584</v>
+        <v>48.64021059734108</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>22.93819689275675</v>
+        <v>49.15327905590732</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>23.18316805696823</v>
+        <v>49.67821726493191</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>23.43376929154464</v>
+        <v>50.21521991045279</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>23.6900902155507</v>
+        <v>50.76447903332292</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>23.95221930121336</v>
+        <v>51.32618421688577</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>24.22024396809072</v>
+        <v>51.90052278876583</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>24.49425068363515</v>
+        <v>52.48768003636103</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>24.77432506976294</v>
+        <v>53.08783943520629</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>25.06055201525558</v>
+        <v>53.70118288983339</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>25.35301579356269</v>
+        <v>54.32789098620576</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>25.65180018578259</v>
+        <v>54.96814325524841</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>25.95698860845795</v>
+        <v>55.62211844669559</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>26.26866424589868</v>
+        <v>56.28999481264003</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>26.5869101866517</v>
+        <v>56.97195039996792</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>26.9118095638458</v>
+        <v>57.66816335109814</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>27.24344569905941</v>
+        <v>58.37881221227017</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>27.58190224934922</v>
+        <v>59.10407624860547</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>27.92726335715787</v>
+        <v>59.84413576533829</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>28.27961380272404</v>
+        <v>60.59917243440865</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>28.63903915867521</v>
+        <v>61.36936962573258</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>29.00562594647872</v>
+        <v>62.15491274245439</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>29.3794617944062</v>
+        <v>62.95598955944186</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>29.76063559666661</v>
+        <v>63.77279056428559</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>30.14923767342095</v>
+        <v>64.60550930018775</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>30.54535993130327</v>
+        <v>65.45434270993557</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>30.94909602413122</v>
+        <v>66.31949148028117</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>31.36054151351227</v>
+        <v>67.20116038609771</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>31.77979402896505</v>
+        <v>68.09955863349654</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>32.20695342728904</v>
+        <v>69.01490020133365</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>32.64212195081436</v>
+        <v>69.94740418031647</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>33.08540438423405</v>
+        <v>70.89729510907296</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>33.53690820968804</v>
+        <v>71.86480330647439</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>33.99674375978805</v>
+        <v>72.85016519954583</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>34.46502436822783</v>
+        <v>73.85362364620249</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>34.94186651770384</v>
+        <v>74.87542825222252</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>35.42738998478612</v>
+        <v>75.91583568168454</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>35.92171798140066</v>
+        <v>76.97510996014428</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>36.42497729263488</v>
+        <v>78.05352276993187</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>36.93729841049952</v>
+        <v>79.15135373678469</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>37.45881566330449</v>
+        <v>80.26889070708104</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>37.98966734031646</v>
+        <v>81.40643001496383</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>38.52999581136375</v>
+        <v>82.56427673863661</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>39.07994764097354</v>
+        <v>83.7427449449433</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>39.63967369676253</v>
+        <v>84.94215792163399</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>40.20932925162219</v>
+        <v>86.16284839633327</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>40.78907407935634</v>
+        <v>87.40515874147786</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>41.37907254343213</v>
+        <v>88.66944116449743</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>41.97949367829032</v>
+        <v>89.95605788205069</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>42.59051126299622</v>
+        <v>91.26538127784904</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>43.2123038866625</v>
+        <v>92.59779404284822</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>43.84505500524258</v>
+        <v>93.95368929694838</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>44.4889529892929</v>
+        <v>95.33347069134192</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>45.1441911621665</v>
+        <v>96.73755249035678</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>45.81096782823207</v>
+        <v>98.16635963192584</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>46.48948629056006</v>
+        <v>99.62032776548584</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>47.17995485762385</v>
+        <v>101.0999032663368</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>47.88258683847236</v>
+        <v>102.6055432252979</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>48.5976005258228</v>
+        <v>104.1377154124774</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>49.32521916657225</v>
+        <v>105.6968982140834</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>50.06567091911</v>
+        <v>107.28358054095</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>50.81918879689203</v>
+        <v>108.8982617076258</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>51.58601059765883</v>
+        <v>110.5414512806975</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>52.36637881772123</v>
+        <v>112.2136688951169</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>53.16054055066824</v>
+        <v>113.9154440371462</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>53.96874736988926</v>
+        <v>115.6473157926198</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>54.79125519426009</v>
+        <v>117.4098325591288</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>55.62832413635171</v>
+        <v>119.2035517207537</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>56.48021833252255</v>
+        <v>121.0290392839769</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>57.34720575417812</v>
+        <v>122.8868694732388</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>58.2295579996151</v>
+        <v>124.7776242848895</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>59.127550065713</v>
+        <v>126.7018929979564</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>60.04146009885015</v>
+        <v>128.6602716403932</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>60.97156912436442</v>
+        <v>130.6533624093523</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>61.91816075389808</v>
+        <v>132.6817730440673</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>62.88152086998437</v>
+        <v>134.7461161499665</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>63.86193728727805</v>
+        <v>136.8470084727387</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>64.85969938971154</v>
+        <v>138.9850701208104</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>65.87509774310507</v>
+        <v>141.1609237352251</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>66.90842368257212</v>
+        <v>143.3751936055117</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>67.95996887419474</v>
+        <v>145.6285047304173</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>69.03002485045836</v>
+        <v>147.9214818224108</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>70.11888251901087</v>
+        <v>150.2547482550233</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>71.2268316442634</v>
+        <v>152.628924951993</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>72.35416030145382</v>
+        <v>155.044629217401</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>726.7075316929079</v>
+        <v>1557.230425056231</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>738.2451158542996</v>
+        <v>1581.953819687784</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>749.9826921746164</v>
+        <v>1607.105768945606</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>761.9229825471747</v>
+        <v>1632.692105458231</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>774.0686610106899</v>
+        <v>1658.718559308621</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>786.4223466776322</v>
+        <v>1685.19074288064</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>798.9865963845056</v>
+        <v>1712.114135109654</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>811.7638970660396</v>
+        <v>1739.494065141513</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>824.7566578567892</v>
+        <v>1767.335695407405</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>837.9672019265201</v>
+        <v>1795.644004128257</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>851.3977580547786</v>
+        <v>1824.423767260239</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>865.0504519520017</v>
+        <v>1853.679539897146</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>878.9272973375603</v>
+        <v>1883.415637151914</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>893.0301867847298</v>
+        <v>1913.636114538706</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>907.3608823447087</v>
+        <v>1944.344747881518</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>921.921005964943</v>
+        <v>1975.54501278202</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>936.7120297160662</v>
+        <v>2007.240063677284</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>951.7352658460278</v>
+        <v>2039.432712527202</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>966.9918566816762</v>
+        <v>2072.12540717502</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>982.4827643974169</v>
+        <v>2105.320209423036</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>998.2087606767673</v>
+        <v>2139.018772878786</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1014.17041629012</v>
+        <v>2173.222320621685</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1030.368090619068</v>
+        <v>2207.931622755144</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1046.801921154402</v>
+        <v>2243.14697390229</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1063.471813001441</v>
+        <v>2278.868170717373</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1080.377428426416</v>
+        <v>2315.094489485177</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1097.51817647939</v>
+        <v>2351.824663884406</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1114.893202732501</v>
+        <v>2389.056862998216</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1132.50137917362</v>
+        <v>2426.788669657757</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1150.341294297645</v>
+        <v>2465.01705920924</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1168.411243438901</v>
+        <v>2503.738378797646</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1186.70921939155</v>
+        <v>2542.948327267606</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1205.232903364585</v>
+        <v>2582.641935781254</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1223.979656320996</v>
+        <v>2622.813549259277</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1242.946510751835</v>
+        <v>2663.456808753931</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1262.130162936404</v>
+        <v>2704.564634863722</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1281.526965741298</v>
+        <v>2746.129212302781</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1301.132922013688</v>
+        <v>2788.141975743617</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1320.943678620966</v>
+        <v>2830.593597044925</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1340.954521192918</v>
+        <v>2873.473973984824</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1361.160369621781</v>
+        <v>2916.772220618101</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1381.555774374044</v>
+        <v>2960.476659372951</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1402.134913670205</v>
+        <v>3004.574815007582</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1422.891591584021</v>
+        <v>3049.053410537188</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1443.819237118016</v>
+        <v>3093.89836525289</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1464.910904302618</v>
+        <v>3139.09479493418</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1486.15927337369</v>
+        <v>3184.627014372192</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1507.556653072228</v>
+        <v>3230.47854229763</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1529.094984116464</v>
+        <v>3276.632108820994</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1550.765843886292</v>
+        <v>3323.069665470624</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1572.56045236281</v>
+        <v>3369.772397920306</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1594.469679358222</v>
+        <v>3416.720741481904</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1616.484053070994</v>
+        <v>3463.894399437844</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1638.593769994375</v>
+        <v>3511.27236427366</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1660.788706203786</v>
+        <v>3558.832941865254</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1611.503366540744</v>
+        <v>3453.221499730157</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1632.887634002369</v>
+        <v>3499.044930005069</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1654.322704618209</v>
+        <v>3544.977224181869</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1675.797792752378</v>
+        <v>3590.995270183657</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1697.301880316449</v>
+        <v>3637.075457820953</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1718.82373572491</v>
+        <v>3683.193719410513</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1740.35193419794</v>
+        <v>3729.32557328129</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1761.874879388135</v>
+        <v>3775.446170117423</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1783.380826307074</v>
+        <v>3821.530342086577</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1804.857905521003</v>
+        <v>3867.552654687855</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1826.294148573123</v>
+        <v>3913.487461228112</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1847.677514592209</v>
+        <v>3959.308959840439</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1868.995918031682</v>
+        <v>4004.991252925023</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1890.237257484344</v>
+        <v>4050.508408895013</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1911.389445508476</v>
+        <v>4095.834526089581</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1929.679988594291</v>
+        <v>4135.028546987765</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1950.587912736519</v>
+        <v>4179.831241578252</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1971.370997412247</v>
+        <v>4224.366423026241</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1992.017543683822</v>
+        <v>4268.609022179617</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2012.516027976792</v>
+        <v>4312.534345664553</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2032.855136262228</v>
+        <v>4356.118149133344</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2053.023798649166</v>
+        <v>4399.336711391068</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2073.01122428367</v>
+        <v>4442.166909179292</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2092.806936448227</v>
+        <v>4484.586292389055</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2112.400807751332</v>
+        <v>4526.573159467137</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3181.995574974688</v>
+        <v>5165.577232101753</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3210.596715423151</v>
+        <v>5212.007654907699</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3238.854881592837</v>
+        <v>5257.88130128706</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3266.757564648967</v>
+        <v>5303.177864689868</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3294.293035929424</v>
+        <v>5347.87830508022</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3321.450396718241</v>
+        <v>5391.964929737391</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3348.219626959235</v>
+        <v>5435.421472336408</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3374.591632741266</v>
+        <v>5478.233170034509</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3400.558292386272</v>
+        <v>5520.386838289389</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3426.112500978198</v>
+        <v>5561.870943146411</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3248.463449428266</v>
+        <v>6328.175550834291</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3271.723703092112</v>
+        <v>6373.487733296329</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3294.58181375439</v>
+        <v>6418.016520300766</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3317.035306564323</v>
+        <v>6461.757090709728</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3339.082846053028</v>
+        <v>6504.706842960451</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3360.724266188229</v>
+        <v>6546.86545361344</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3381.960597986667</v>
+        <v>6588.234931142864</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3402.794094555635</v>
+        <v>6628.819664718776</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3423.228253454002</v>
+        <v>6668.626467767544</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3443.267836248615</v>
+        <v>6707.664616068738</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2146.246619432164</v>
+        <v>6438.739858296504</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2158.189681083656</v>
+        <v>6474.569043250981</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2169.901840073624</v>
+        <v>6509.705520220885</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2181.389265306215</v>
+        <v>6544.167795918659</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2192.658941335905</v>
+        <v>6577.976824007729</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2203.71866869351</v>
+        <v>6611.156006080545</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2214.57706203053</v>
+        <v>6643.731186091604</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2225.243546011259</v>
+        <v>6675.73063803379</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2235.728348900253</v>
+        <v>6707.185046700773</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2246.042493772531</v>
+        <v>6738.127481317607</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2423.332249273536</v>
+        <v>7269.996747820623</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2434.08271534285</v>
+        <v>7302.248146028563</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2444.690388384893</v>
+        <v>7334.071165154692</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2455.170374984476</v>
+        <v>7365.511124953439</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2465.538547514347</v>
+        <v>7396.615642543052</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2475.811517891059</v>
+        <v>7427.434553673189</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2486.006608261055</v>
+        <v>7458.019824783178</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2496.141818533632</v>
+        <v>7488.425455600906</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2506.235790679194</v>
+        <v>7518.707372037594</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2516.307769705925</v>
+        <v>7548.923309117788</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2526.377561236903</v>
+        <v>7579.132683710723</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2536.465485598317</v>
+        <v>7609.396456794963</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2546.592328347167</v>
+        <v>7639.776985041514</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2556.779287153636</v>
+        <v>7670.337861460922</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2567.047914973649</v>
+        <v>7701.143744920962</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2577.420059445923</v>
+        <v>7732.260178337784</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2587.917798455973</v>
+        <v>7763.753395367931</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2598.563371827765</v>
+        <v>7795.690115483309</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2609.379109110368</v>
+        <v>7828.137327331116</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2620.387353445317</v>
+        <v>7861.162060335964</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2631.610381523563</v>
+        <v>7894.831144570701</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2643.070319654524</v>
+        <v>7929.210958963586</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2654.789056005682</v>
+        <v>7964.367168017059</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2666.788149086116</v>
+        <v>8000.364447258363</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2679.088732594703</v>
+        <v>8037.266197784123</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2691.71141677166</v>
+        <v>8075.134250314992</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2704.676186447128</v>
+        <v>8114.028559341397</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2718.002296005217</v>
+        <v>8154.006888015664</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2731.708161541488</v>
+        <v>8195.124484624479</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2745.811250528919</v>
+        <v>8237.43375158677</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2760.327969359778</v>
+        <v>8280.983908079348</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2775.273549187955</v>
+        <v>8325.82064756388</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2790.661930544309</v>
+        <v>8371.985791632942</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2806.505647257257</v>
+        <v>8419.516941771786</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2822.815710266045</v>
+        <v>8468.447130798148</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2839.601491972087</v>
+        <v>8518.804475916275</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2856.870611835132</v>
+        <v>8570.611835505411</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2874.628823962354</v>
+        <v>8623.886471887075</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2892.879907514918</v>
+        <v>8678.639722544767</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2911.625560787619</v>
+        <v>8734.876682362872</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1472.371561745333</v>
+        <v>687.106728814489</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1.773836204530642</v>
+        <v>0.8277902287809661</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1.80264810232005</v>
+        <v>0.84123578108269</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1.832094429020211</v>
+        <v>0.8549774002094321</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1.862197027969382</v>
+        <v>0.8690252797190452</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1.892978629379716</v>
+        <v>0.8833900270438676</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1.924462876927884</v>
+        <v>0.8980826758996793</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1.956674354156145</v>
+        <v>0.9131146986062012</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1.989638610594777</v>
+        <v>0.9284980182775627</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>2.023382187485311</v>
+        <v>0.9442450208264785</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>2.057932643023644</v>
+        <v>0.9603685667443674</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>2.093318577014995</v>
+        <v>0.9768820026069979</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>2.129569654799782</v>
+        <v>0.9937991722398982</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>2.166716630367732</v>
+        <v>1.011134427504941</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>2.204791368497177</v>
+        <v>1.028902638632016</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>2.243826865822854</v>
+        <v>1.047119204050665</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>2.283857270665678</v>
+        <v>1.065800059643983</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>2.324917901502774</v>
+        <v>1.084961687367961</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>2.367045263927526</v>
+        <v>1.104621123166179</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>2.410277065934558</v>
+        <v>1.124795964102794</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>2.454652231401819</v>
+        <v>1.145504374654182</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>2.500210911580227</v>
+        <v>1.166765092070773</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>2.546994494447041</v>
+        <v>1.188597430741952</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>2.595045611757858</v>
+        <v>1.211021285487001</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>2.644408143609454</v>
+        <v>1.234057133684412</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>2.695127220368728</v>
+        <v>1.257726036172073</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>2.747249221772711</v>
+        <v>1.282049636827265</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>2.800821773036551</v>
+        <v>1.307050160750391</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>2.855893737800613</v>
+        <v>1.332750410973619</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>2.912515207725404</v>
+        <v>1.359173763605188</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>2.970737488579119</v>
+        <v>1.386344161336922</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3.03061308263905</v>
+        <v>1.414286105231557</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3.092195667235337</v>
+        <v>1.443024644709824</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3.155540069280446</v>
+        <v>1.472585365664208</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3.220702235612845</v>
+        <v>1.502994376619328</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3.28773919901224</v>
+        <v>1.534278292872379</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>3.356709039717749</v>
+        <v>1.56646421853495</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>3.427670842329968</v>
+        <v>1.599579726420652</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>3.500684647944621</v>
+        <v>1.63365283570749</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>3.575811401400459</v>
+        <v>1.668711987320214</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>3.653112893515058</v>
+        <v>1.704786016973694</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>3.732651698233957</v>
+        <v>1.741904125842513</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>3.814491104556883</v>
+        <v>1.780095848793212</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>3.898695043206128</v>
+        <v>1.81939102016286</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>3.985328007944173</v>
+        <v>1.859819737040614</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4.074454971497207</v>
+        <v>1.90141232003203</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4.16614129607433</v>
+        <v>1.944199271501354</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>4.260452638430605</v>
+        <v>1.988211231267616</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>4.357454849505729</v>
+        <v>2.03347892976934</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>4.457213868659538</v>
+        <v>2.080033138707785</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>4.559795612531159</v>
+        <v>2.127904619181208</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>4.665265858607121</v>
+        <v>2.17712406734999</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>4.773690123566237</v>
+        <v>2.227722057664244</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>4.885133536539022</v>
+        <v>2.27972898371821</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>4.999660707379442</v>
+        <v>2.333174996777073</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>5.117335590135355</v>
+        <v>2.388089942063166</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>5.238221341901364</v>
+        <v>2.444503292887304</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>5.362380177233745</v>
+        <v>2.502444082709081</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>5.489873218394123</v>
+        <v>2.561940835250591</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>5.620760341671173</v>
+        <v>2.623021492779881</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>5.755100020060135</v>
+        <v>2.68571334269473</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>5.892949162615463</v>
+        <v>2.750042942553883</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>6.034362950838549</v>
+        <v>2.816036043724657</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>6.179394672417303</v>
+        <v>2.883717513794742</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>6.328095552774701</v>
+        <v>2.953111257961527</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>6.480514584778338</v>
+        <v>3.024240139563224</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>6.636698357099558</v>
+        <v>3.097125899979794</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>6.79669088167491</v>
+        <v>3.171789078114958</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>6.960533420751524</v>
+        <v>3.248248929684045</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>7.128264314033818</v>
+        <v>3.326523346549115</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>7.299918806482684</v>
+        <v>3.406628776358586</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>7.475528877289239</v>
+        <v>3.488580142734979</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>7.655123070629034</v>
+        <v>3.572390766293549</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>7.838726328767418</v>
+        <v>3.658072286758129</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>8.026359828129829</v>
+        <v>3.745634586460587</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>8.21804081895514</v>
+        <v>3.835085715512399</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>8.413782469171769</v>
+        <v>3.926431818946826</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>8.613593713123725</v>
+        <v>4.019677066124405</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>8.817479105815357</v>
+        <v>4.114823582713834</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>9.025438683315127</v>
+        <v>4.21187138554706</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>9.23746782998427</v>
+        <v>4.310818320659326</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>9.453557153187218</v>
+        <v>4.411660004820702</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>9.673692366142975</v>
+        <v>4.514389770866722</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>9.897854179564435</v>
+        <v>4.61899861713007</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>10.12601820273957</v>
+        <v>4.725475161278467</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>10.35815485466362</v>
+        <v>4.833805598843025</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>10.59422928588091</v>
+        <v>4.943973666744423</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>10.83420131161681</v>
+        <v>5.055960612087846</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>11.07802535676487</v>
+        <v>5.169745166490274</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>11.32565041334235</v>
+        <v>5.285303526226429</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>11.57702001091052</v>
+        <v>5.40260933842491</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>11.83207220047384</v>
+        <v>5.521633693554461</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>12.09073955235444</v>
+        <v>5.642345124432073</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>12.35294916847368</v>
+        <v>5.764709611954384</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>12.61862270943717</v>
+        <v>5.888690597737346</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>12.88767643681417</v>
+        <v>6.014249003846611</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>13.16002127091828</v>
+        <v>6.141343259761864</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>13.43556286437951</v>
+        <v>6.269929336710439</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>13.71420169173847</v>
+        <v>6.399960789477954</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>13.99583315523637</v>
+        <v>6.53138880577697</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>14.28034770696576</v>
+        <v>6.664162263250688</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>14.56763098742154</v>
+        <v>6.798227794130051</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>14.85756398049329</v>
+        <v>6.933529857563536</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>15.1500231848928</v>
+        <v>7.070010819616638</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>15.444880801871</v>
+        <v>7.207611040873132</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>15.74200493913594</v>
+        <v>7.34626897159677</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>16.0412598307105</v>
+        <v>7.485921254331569</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>16.34250607250053</v>
+        <v>7.626502833833584</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>16.64560087322359</v>
+        <v>7.767947074171011</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>16.95039832030476</v>
+        <v>7.910185882808887</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>17.25674966030587</v>
+        <v>8.053149841476072</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>17.56450359334962</v>
+        <v>8.196768343563159</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>17.87350658099863</v>
+        <v>8.340969737799362</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>18.1836031669326</v>
+        <v>8.485681477901878</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>18.49463630974988</v>
+        <v>8.630830277883277</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>18.80644772714922</v>
+        <v>8.776342272669634</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>19.11887825069959</v>
+        <v>8.922143183659808</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>19.43176819033439</v>
+        <v>9.068158488822718</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>19.7449577076941</v>
+        <v>9.214313596923914</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>20.05828719735883</v>
+        <v>9.360534025434118</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>20.37159767499227</v>
+        <v>9.506745581663058</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>20.68473117136188</v>
+        <v>9.652874546635546</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>20.99753113117779</v>
+        <v>9.798847861216302</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>21.30984281564894</v>
+        <v>9.944593313969506</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>21.62151370763323</v>
+        <v>10.09003973022884</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>21.93239391821834</v>
+        <v>10.23511716183523</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>22.24233659357849</v>
+        <v>10.3797570770033</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>22.55119832088845</v>
+        <v>10.52389254974794</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>22.85883953212966</v>
+        <v>10.66745844832717</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>23.16512490452459</v>
+        <v>10.81039162211148</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>23.46992375644378</v>
+        <v>10.95263108634043</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>23.77311043753279</v>
+        <v>11.09411820418197</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>24.07456471184974</v>
+        <v>11.23479686552988</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>24.37417213286868</v>
+        <v>11.37461366200538</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>24.67182440908739</v>
+        <v>11.51351805757412</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>24.96741975916819</v>
+        <v>11.65146255427849</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>25.26086325542389</v>
+        <v>11.78840285253115</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>25.55206715455357</v>
+        <v>11.92429800545833</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>25.84095121459299</v>
+        <v>12.05911056681006</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>26.12744299701753</v>
+        <v>12.19280673194151</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>26.41147815302593</v>
+        <v>12.3253564714121</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>26.69300069309247</v>
+        <v>12.45673365677649</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>26.97196323886238</v>
+        <v>12.58691617813578</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>27.24832725661316</v>
+        <v>12.71588605308614</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>27.52206327146567</v>
+        <v>12.84362952668398</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>27.79315106169966</v>
+        <v>12.97013716212651</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>28.06157983247039</v>
+        <v>13.09540392181952</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>28.32734836841845</v>
+        <v>13.21942923859528</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>28.59046516464957</v>
+        <v>13.34221707683647</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>28.85094853564243</v>
+        <v>13.4637759832998</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>29.10882670179068</v>
+        <v>13.58411912750232</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>29.36413785324885</v>
+        <v>13.70326433151613</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>29.61693019094842</v>
+        <v>13.82123408910927</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>29.8672619446257</v>
+        <v>13.93805557415866</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>30.11520136785143</v>
+        <v>14.05376063833067</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>30.36082671013547</v>
+        <v>14.16838579806322</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>30.60422616616992</v>
+        <v>14.2819722108793</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>30.84549780250165</v>
+        <v>14.39456564116744</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>31.08474946185308</v>
+        <v>14.50621641553144</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>31.32209864549997</v>
+        <v>14.61697936789999</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>31.55767237412879</v>
+        <v>14.72691377459344</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>31.79160702769497</v>
+        <v>14.83608327959098</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>32.0240481648801</v>
+        <v>14.94455581027738</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>32.25515032277563</v>
+        <v>15.05240348396196</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>32.48507679756059</v>
+        <v>15.15970250552827</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>32.71399940694101</v>
+        <v>15.26653305657247</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>32.94209823519041</v>
+        <v>15.3729791764222</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>33.16956136171738</v>
+        <v>15.47912863546811</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>33.39658457412354</v>
+        <v>15.58507280125765</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>33.62337106674195</v>
+        <v>15.69090649781291</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>33.85013112573076</v>
+        <v>15.79672785867436</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>34.07708180181206</v>
+        <v>15.90263817417896</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>34.30444657179318</v>
+        <v>16.00874173350348</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>34.53245499002493</v>
+        <v>16.11514566201163</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>34.7613423310067</v>
+        <v>16.22195975446979</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>34.99134922434681</v>
+        <v>16.32929630469518</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>35.22272128330491</v>
+        <v>16.43726993220896</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>35.45570872817781</v>
+        <v>16.54599740648298</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>35.69056600576712</v>
+        <v>16.65559746935799</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>35.92755140620473</v>
+        <v>16.76619065622888</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>36.16692667838669</v>
+        <v>16.87789911658045</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>36.40895664526003</v>
+        <v>16.99084643445468</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>36.65390882020677</v>
+        <v>17.10515744942983</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>36.9020530257718</v>
+        <v>17.22095807869351</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>37.15366101590686</v>
+        <v>17.33837514075654</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>37.4090061029353</v>
+        <v>17.45753618136981</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>37.66836279040567</v>
+        <v>17.57856930218931</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>37.93200641291198</v>
+        <v>17.70160299269226</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>38.2002127840388</v>
+        <v>17.82676596588478</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>38.47325785341797</v>
+        <v>17.95418699826172</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>38.75141737393129</v>
+        <v>18.08399477450127</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>39.03496658006046</v>
+        <v>18.21631773736155</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>39.32417987822455</v>
+        <v>18.35128394317146</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>39.61933055003421</v>
+        <v>18.4890209233493</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>39.92069046926682</v>
+        <v>18.62965555232452</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>40.22852983330232</v>
+        <v>18.77331392220775</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>40.54311690974077</v>
+        <v>18.9201212245457</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>40.86471779885768</v>
+        <v>19.07020163946692</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>41.19359621245928</v>
+        <v>19.223678232481</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>41.53001326970514</v>
+        <v>19.38067285919573</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>41.87422731034254</v>
+        <v>19.54130607815985</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>42.22650314839584</v>
+        <v>19.70570146925139</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>42.58707527455417</v>
+        <v>19.87396846145862</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>42.95620120926749</v>
+        <v>20.0462272309915</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>43.33412667334913</v>
+        <v>20.22259244756293</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>43.72109394815457</v>
+        <v>20.40317717580547</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>44.11734179984764</v>
+        <v>20.5880928399289</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>44.52310542272139</v>
+        <v>20.77744919726998</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>44.9386164015543</v>
+        <v>20.97135432072534</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>45.36410269295394</v>
+        <v>21.16991459004517</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>45.79978862558288</v>
+        <v>21.37323469193868</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>46.24589491909015</v>
+        <v>21.58141762890874</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>46.70263872155537</v>
+        <v>21.79456473672584</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>47.1702336652075</v>
+        <v>22.01277571043017</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>47.64888994007057</v>
+        <v>22.2361486386996</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>48.13881438523104</v>
+        <v>22.46478004644115</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>48.64021059734108</v>
+        <v>22.69876494542584</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>49.15327905590732</v>
+        <v>22.93819689275675</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>49.67821726493191</v>
+        <v>23.18316805696823</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>50.21521991045279</v>
+        <v>23.43376929154464</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>50.76447903332292</v>
+        <v>23.6900902155507</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>51.32618421688577</v>
+        <v>23.95221930121336</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>51.90052278876583</v>
+        <v>24.22024396809072</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>52.48768003636103</v>
+        <v>24.49425068363515</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>53.08783943520629</v>
+        <v>24.77432506976294</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>53.70118288983339</v>
+        <v>25.06055201525558</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>54.32789098620576</v>
+        <v>25.35301579356269</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>54.96814325524841</v>
+        <v>25.65180018578259</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>55.62211844669559</v>
+        <v>25.95698860845795</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>56.28999481264003</v>
+        <v>26.26866424589868</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>56.97195039996792</v>
+        <v>26.5869101866517</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>57.66816335109814</v>
+        <v>26.9118095638458</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>58.37881221227017</v>
+        <v>27.24344569905941</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>59.10407624860547</v>
+        <v>27.58190224934922</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>59.84413576533829</v>
+        <v>27.92726335715787</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>60.59917243440865</v>
+        <v>28.27961380272404</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>61.36936962573258</v>
+        <v>28.63903915867521</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>62.15491274245439</v>
+        <v>29.00562594647872</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>62.95598955944186</v>
+        <v>29.3794617944062</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>63.77279056428559</v>
+        <v>29.76063559666661</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64.60550930018775</v>
+        <v>30.14923767342095</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65.45434270993557</v>
+        <v>30.54535993130327</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>66.31949148028117</v>
+        <v>30.94909602413122</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>67.20116038609771</v>
+        <v>31.36054151351227</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>68.09955863349654</v>
+        <v>31.77979402896505</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>69.01490020133365</v>
+        <v>32.20695342728904</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>69.94740418031647</v>
+        <v>32.64212195081436</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>70.89729510907296</v>
+        <v>33.08540438423405</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>71.86480330647439</v>
+        <v>33.53690820968804</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>72.85016519954583</v>
+        <v>33.99674375978805</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>73.85362364620249</v>
+        <v>34.46502436822783</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>74.87542825222252</v>
+        <v>34.94186651770384</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>75.91583568168454</v>
+        <v>35.42738998478612</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>76.97510996014428</v>
+        <v>35.92171798140066</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>78.05352276993187</v>
+        <v>36.42497729263488</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>79.15135373678469</v>
+        <v>36.93729841049952</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>80.26889070708104</v>
+        <v>37.45881566330449</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>81.40643001496383</v>
+        <v>37.98966734031646</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>82.56427673863661</v>
+        <v>38.52999581136375</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>83.7427449449433</v>
+        <v>39.07994764097354</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>84.94215792163399</v>
+        <v>39.63967369676253</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>86.16284839633327</v>
+        <v>40.20932925162219</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>87.40515874147786</v>
+        <v>40.78907407935634</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>88.66944116449743</v>
+        <v>41.37907254343213</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>89.95605788205069</v>
+        <v>41.97949367829032</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>91.26538127784904</v>
+        <v>42.59051126299622</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>92.59779404284822</v>
+        <v>43.2123038866625</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>93.95368929694838</v>
+        <v>43.84505500524258</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>95.33347069134192</v>
+        <v>44.4889529892929</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>96.73755249035678</v>
+        <v>45.1441911621665</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>98.16635963192584</v>
+        <v>45.81096782823207</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>99.62032776548584</v>
+        <v>46.48948629056006</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>101.0999032663368</v>
+        <v>47.17995485762385</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>102.6055432252979</v>
+        <v>47.88258683847236</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>104.1377154124774</v>
+        <v>48.5976005258228</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>105.6968982140834</v>
+        <v>49.32521916657225</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>107.28358054095</v>
+        <v>50.06567091911</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>108.8982617076258</v>
+        <v>50.81918879689203</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>110.5414512806975</v>
+        <v>51.58601059765883</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>112.2136688951169</v>
+        <v>52.36637881772123</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>113.9154440371462</v>
+        <v>53.16054055066824</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>115.6473157926198</v>
+        <v>53.96874736988926</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>117.4098325591288</v>
+        <v>54.79125519426009</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>119.2035517207537</v>
+        <v>55.62832413635171</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>121.0290392839769</v>
+        <v>56.48021833252255</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>122.8868694732388</v>
+        <v>57.34720575417812</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>124.7776242848895</v>
+        <v>58.2295579996151</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>126.7018929979564</v>
+        <v>59.127550065713</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>128.6602716403932</v>
+        <v>60.04146009885015</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>130.6533624093523</v>
+        <v>60.97156912436442</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>132.6817730440673</v>
+        <v>61.91816075389808</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>134.7461161499665</v>
+        <v>62.88152086998437</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>136.8470084727387</v>
+        <v>63.86193728727805</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>138.9850701208104</v>
+        <v>64.85969938971154</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>141.1609237352251</v>
+        <v>65.87509774310507</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>143.3751936055117</v>
+        <v>66.90842368257212</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>145.6285047304173</v>
+        <v>67.95996887419474</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>147.9214818224108</v>
+        <v>69.03002485045836</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>150.2547482550233</v>
+        <v>70.11888251901087</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>152.628924951993</v>
+        <v>71.2268316442634</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>155.044629217401</v>
+        <v>72.35416030145382</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1557.230425056231</v>
+        <v>726.7075316929079</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1581.953819687784</v>
+        <v>738.2451158542996</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1607.105768945606</v>
+        <v>749.9826921746164</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1632.692105458231</v>
+        <v>761.9229825471747</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1658.718559308621</v>
+        <v>774.0686610106899</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1685.19074288064</v>
+        <v>786.4223466776322</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1712.114135109654</v>
+        <v>798.9865963845056</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1739.494065141513</v>
+        <v>811.7638970660396</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1767.335695407405</v>
+        <v>824.7566578567892</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1795.644004128257</v>
+        <v>837.9672019265201</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1824.423767260239</v>
+        <v>851.3977580547786</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1853.679539897146</v>
+        <v>865.0504519520017</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1883.415637151914</v>
+        <v>878.9272973375603</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1913.636114538706</v>
+        <v>893.0301867847298</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1944.344747881518</v>
+        <v>907.3608823447087</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1975.54501278202</v>
+        <v>921.921005964943</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2007.240063677284</v>
+        <v>936.7120297160662</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2039.432712527202</v>
+        <v>951.7352658460278</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2072.12540717502</v>
+        <v>966.9918566816762</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2105.320209423036</v>
+        <v>982.4827643974169</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2139.018772878786</v>
+        <v>998.2087606767673</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2173.222320621685</v>
+        <v>1014.17041629012</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2207.931622755144</v>
+        <v>1030.368090619068</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2243.14697390229</v>
+        <v>1046.801921154402</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2278.868170717373</v>
+        <v>1063.471813001441</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2315.094489485177</v>
+        <v>1080.377428426416</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2351.824663884406</v>
+        <v>1097.51817647939</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2389.056862998216</v>
+        <v>1114.893202732501</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2426.788669657757</v>
+        <v>1132.50137917362</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2465.01705920924</v>
+        <v>1150.341294297645</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2503.738378797646</v>
+        <v>1168.411243438901</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2542.948327267606</v>
+        <v>1186.70921939155</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2582.641935781254</v>
+        <v>1205.232903364585</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2622.813549259277</v>
+        <v>1223.979656320996</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2663.456808753931</v>
+        <v>1242.946510751835</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2704.564634863722</v>
+        <v>1262.130162936404</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2746.129212302781</v>
+        <v>1281.526965741298</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2788.141975743617</v>
+        <v>1301.132922013688</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2830.593597044925</v>
+        <v>1320.943678620966</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2873.473973984824</v>
+        <v>1340.954521192918</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2916.772220618101</v>
+        <v>1361.160369621781</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2960.476659372951</v>
+        <v>1381.555774374044</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3004.574815007582</v>
+        <v>1402.134913670205</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3049.053410537188</v>
+        <v>1422.891591584021</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3093.89836525289</v>
+        <v>1443.819237118016</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3139.09479493418</v>
+        <v>1464.910904302618</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3184.627014372192</v>
+        <v>1486.15927337369</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3230.47854229763</v>
+        <v>1507.556653072228</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3276.632108820994</v>
+        <v>1529.094984116464</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3323.069665470624</v>
+        <v>1550.765843886292</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3369.772397920306</v>
+        <v>1572.56045236281</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3416.720741481904</v>
+        <v>1594.469679358222</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3463.894399437844</v>
+        <v>1616.484053070994</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3511.27236427366</v>
+        <v>1638.593769994375</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3558.832941865254</v>
+        <v>1660.788706203786</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3453.221499730157</v>
+        <v>1611.503366540744</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3499.044930005069</v>
+        <v>1632.887634002369</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3544.977224181869</v>
+        <v>1654.322704618209</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3590.995270183657</v>
+        <v>1675.797792752378</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3637.075457820953</v>
+        <v>1697.301880316449</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3683.193719410513</v>
+        <v>1718.82373572491</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3729.32557328129</v>
+        <v>1740.35193419794</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3775.446170117423</v>
+        <v>1761.874879388135</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3821.530342086577</v>
+        <v>1783.380826307074</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3867.552654687855</v>
+        <v>1804.857905521003</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3913.487461228112</v>
+        <v>1826.294148573123</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3959.308959840439</v>
+        <v>1847.677514592209</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>4004.991252925023</v>
+        <v>1868.995918031682</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>4050.508408895013</v>
+        <v>1890.237257484344</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>4095.834526089581</v>
+        <v>1911.389445508476</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>4135.028546987765</v>
+        <v>1929.679988594291</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>4179.831241578252</v>
+        <v>1950.587912736519</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>4224.366423026241</v>
+        <v>1971.370997412247</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>4268.609022179617</v>
+        <v>1992.017543683822</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>4312.534345664553</v>
+        <v>2012.516027976792</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>4356.118149133344</v>
+        <v>2032.855136262228</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>4399.336711391068</v>
+        <v>2053.023798649166</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>4442.166909179292</v>
+        <v>2073.01122428367</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>4484.586292389055</v>
+        <v>2092.806936448227</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>4526.573159467137</v>
+        <v>2112.400807751332</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5165.577232101753</v>
+        <v>3181.995574974688</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>5212.007654907699</v>
+        <v>3210.596715423151</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>5257.88130128706</v>
+        <v>3238.854881592837</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>5303.177864689868</v>
+        <v>3266.757564648967</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>5347.87830508022</v>
+        <v>3294.293035929424</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>5391.964929737391</v>
+        <v>3321.450396718241</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>5435.421472336408</v>
+        <v>3348.219626959235</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>5478.233170034509</v>
+        <v>3374.591632741266</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>5520.386838289389</v>
+        <v>3400.558292386272</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>5561.870943146411</v>
+        <v>3426.112500978198</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>6328.175550834291</v>
+        <v>3248.463449428266</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>6373.487733296329</v>
+        <v>3271.723703092112</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6418.016520300766</v>
+        <v>3294.58181375439</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6461.757090709728</v>
+        <v>3317.035306564323</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6504.706842960451</v>
+        <v>3339.082846053028</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6546.86545361344</v>
+        <v>3360.724266188229</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6588.234931142864</v>
+        <v>3381.960597986667</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6628.819664718776</v>
+        <v>3402.794094555635</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6668.626467767544</v>
+        <v>3423.228253454002</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>6707.664616068738</v>
+        <v>3443.267836248615</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>6438.739858296504</v>
+        <v>2146.246619432164</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>6474.569043250981</v>
+        <v>2158.189681083656</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>6509.705520220885</v>
+        <v>2169.901840073624</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>6544.167795918659</v>
+        <v>2181.389265306215</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>6577.976824007729</v>
+        <v>2192.658941335905</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>6611.156006080545</v>
+        <v>2203.71866869351</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>6643.731186091604</v>
+        <v>2214.57706203053</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>6675.73063803379</v>
+        <v>2225.243546011259</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>6707.185046700773</v>
+        <v>2235.728348900253</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>6738.127481317607</v>
+        <v>2246.042493772531</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>7269.996747820623</v>
+        <v>2423.332249273536</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>7302.248146028563</v>
+        <v>2434.08271534285</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>7334.071165154692</v>
+        <v>2444.690388384893</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>7365.511124953439</v>
+        <v>2455.170374984476</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>7396.615642543052</v>
+        <v>2465.538547514347</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>7427.434553673189</v>
+        <v>2475.811517891059</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>7458.019824783178</v>
+        <v>2486.006608261055</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>7488.425455600906</v>
+        <v>2496.141818533632</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>7518.707372037594</v>
+        <v>2506.235790679194</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>7548.923309117788</v>
+        <v>2516.307769705925</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>7579.132683710723</v>
+        <v>2526.377561236903</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>7609.396456794963</v>
+        <v>2536.465485598317</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>7639.776985041514</v>
+        <v>2546.592328347167</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>7670.337861460922</v>
+        <v>2556.779287153636</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>7701.143744920962</v>
+        <v>2567.047914973649</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>7732.260178337784</v>
+        <v>2577.420059445923</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>7763.753395367931</v>
+        <v>2587.917798455973</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>7795.690115483309</v>
+        <v>2598.563371827765</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>7828.137327331116</v>
+        <v>2609.379109110368</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>7861.162060335964</v>
+        <v>2620.387353445317</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>7894.831144570701</v>
+        <v>2631.610381523563</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>7929.210958963586</v>
+        <v>2643.070319654524</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>7964.367168017059</v>
+        <v>2654.789056005682</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>8000.364447258363</v>
+        <v>2666.788149086116</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>8037.266197784123</v>
+        <v>2679.088732594703</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>8075.134250314992</v>
+        <v>2691.71141677166</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>8114.028559341397</v>
+        <v>2704.676186447128</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>8154.006888015664</v>
+        <v>2718.002296005217</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>8195.124484624479</v>
+        <v>2731.708161541488</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>8237.43375158677</v>
+        <v>2745.811250528919</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>8280.983908079348</v>
+        <v>2760.327969359778</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>8325.82064756388</v>
+        <v>2775.273549187955</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>8371.985791632942</v>
+        <v>2790.661930544309</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>8419.516941771786</v>
+        <v>2806.505647257257</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>8468.447130798148</v>
+        <v>2822.815710266045</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>8518.804475916275</v>
+        <v>2839.601491972087</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>8570.611835505411</v>
+        <v>2856.870611835132</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>8623.886471887075</v>
+        <v>2874.628823962354</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>8678.639722544767</v>
+        <v>2892.879907514918</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>8734.876682362872</v>
+        <v>2911.625560787619</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_TH.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>687.106728814489</v>
+        <v>687.1067288147339</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8277902287809661</v>
+        <v>0.8277902287987891</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>0.84123578108269</v>
+        <v>0.8412357811017409</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8549774002094321</v>
+        <v>0.8549774002298466</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8690252797190452</v>
+        <v>0.8690252797408233</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8833900270438676</v>
+        <v>0.883390027066602</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8980826758996793</v>
+        <v>0.8980826759240493</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9131146986062012</v>
+        <v>0.9131146986322074</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9284980182775627</v>
+        <v>0.9284980183052047</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9442450208264785</v>
+        <v>0.944245020855485</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9603685667443674</v>
+        <v>0.9603685667750101</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9768820026069979</v>
+        <v>0.9768820026396846</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9937991722398982</v>
+        <v>0.9937991722746292</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1.011134427504941</v>
+        <v>1.011134427541445</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1.028902638632016</v>
+        <v>1.028902638670564</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1.047119204050665</v>
+        <v>1.047119204091394</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1.065800059643983</v>
+        <v>1.065800059687164</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1.084961687367961</v>
+        <v>1.084961687413459</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1.104621123166179</v>
+        <v>1.104621123214266</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1.124795964102794</v>
+        <v>1.124795964153062</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1.145504374654182</v>
+        <v>1.145504374707582</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1.166765092070773</v>
+        <v>1.166765092126762</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1.188597430741952</v>
+        <v>1.188597430801075</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1.211021285487001</v>
+        <v>1.21102128554912</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1.234057133684412</v>
+        <v>1.234057133749393</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1.257726036172073</v>
+        <v>1.257726036240731</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1.282049636827265</v>
+        <v>1.282049636898922</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1.307050160750391</v>
+        <v>1.307050160826132</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1.332750410973619</v>
+        <v>1.332750411052767</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1.359173763605188</v>
+        <v>1.35917376368815</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1.386344161336922</v>
+        <v>1.386344161423698</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1.414286105231557</v>
+        <v>1.414286105322419</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1.443024644709824</v>
+        <v>1.443024644804908</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1.472585365664208</v>
+        <v>1.472585365763651</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1.502994376619328</v>
+        <v>1.50299437672313</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1.534278292872379</v>
+        <v>1.534278292980812</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1.56646421853495</v>
+        <v>1.566464218648149</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1.599579726420652</v>
+        <v>1.599579726538755</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1.63365283570749</v>
+        <v>1.633652835830905</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1.668711987320214</v>
+        <v>1.668711987448261</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1.704786016973694</v>
+        <v>1.704786017107053</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1.741904125842513</v>
+        <v>1.741904125981048</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1.780095848793212</v>
+        <v>1.78009584893774</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1.81939102016286</v>
+        <v>1.819391020313244</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1.859819737040614</v>
+        <v>1.859819737195904</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1.90141232003203</v>
+        <v>1.901412320193858</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1.944199271501354</v>
+        <v>1.944199271669175</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1.988211231267616</v>
+        <v>1.988211231441159</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>2.03347892976934</v>
+        <v>2.033478929949422</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>2.080033138707785</v>
+        <v>2.080033138893997</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>2.127904619181208</v>
+        <v>2.12790461937396</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>2.17712406734999</v>
+        <v>2.177124067549553</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>2.227722057664244</v>
+        <v>2.227722057870347</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>2.27972898371821</v>
+        <v>2.279728983931126</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>2.333174996777073</v>
+        <v>2.33317499699653</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>2.388089942063166</v>
+        <v>2.388089942289572</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>2.444503292887304</v>
+        <v>2.444503293120931</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>2.502444082709081</v>
+        <v>2.502444082949115</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>2.561940835250591</v>
+        <v>2.561940835498255</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>2.623021492779881</v>
+        <v>2.623021493034498</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>2.68571334269473</v>
+        <v>2.685713342955891</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>2.750042942553883</v>
+        <v>2.750042942822675</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>2.816036043724657</v>
+        <v>2.816036044000402</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>2.883717513794742</v>
+        <v>2.883717514077713</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>2.953111257961527</v>
+        <v>2.953111258252132</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>3.024240139563224</v>
+        <v>3.024240139860241</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>3.097125899979794</v>
+        <v>3.097125900283902</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>3.171789078114958</v>
+        <v>3.171789078426158</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>3.248248929684045</v>
+        <v>3.248248930002338</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>3.326523346549115</v>
+        <v>3.326523346873822</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>3.406628776358586</v>
+        <v>3.406628776690659</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>3.488580142734979</v>
+        <v>3.488580143073873</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>3.572390766293549</v>
+        <v>3.572390766638589</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>3.658072286758129</v>
+        <v>3.658072287109992</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>3.745634586460587</v>
+        <v>3.745634586818325</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>3.835085715512399</v>
+        <v>3.83508571587669</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>3.926431818946826</v>
+        <v>3.926431819317264</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>4.019677066124405</v>
+        <v>4.019677066500312</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>4.114823582713834</v>
+        <v>4.114823583095345</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>4.21187138554706</v>
+        <v>4.211871385934176</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>4.310818320659326</v>
+        <v>4.310818321051505</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>4.411660004820702</v>
+        <v>4.411660005217808</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>4.514389770866722</v>
+        <v>4.51438977126862</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>4.61899861713007</v>
+        <v>4.618998617536626</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>4.725475161278467</v>
+        <v>4.725475161688729</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>4.833805598843025</v>
+        <v>4.833805599257673</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>4.943973666744423</v>
+        <v>4.9439736671621</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>5.055960612087846</v>
+        <v>5.055960612509502</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>5.169745166490274</v>
+        <v>5.169745166914145</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>5.285303526226429</v>
+        <v>5.285303526653331</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>5.40260933842491</v>
+        <v>5.402609338854298</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>5.521633693554461</v>
+        <v>5.521633693984978</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>5.642345124432073</v>
+        <v>5.642345124864806</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>5.764709611954384</v>
+        <v>5.76470961238784</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>5.888690597737346</v>
+        <v>5.888690598171118</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>6.014249003846611</v>
+        <v>6.014249004281242</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>6.141343259761864</v>
+        <v>6.141343260195997</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>6.269929336710439</v>
+        <v>6.269929337144752</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>6.399960789477954</v>
+        <v>6.399960789910412</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>6.53138880577697</v>
+        <v>6.531388806208794</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>6.664162263250688</v>
+        <v>6.664162263680656</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>6.798227794130051</v>
+        <v>6.798227794557485</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>6.933529857563536</v>
+        <v>6.933529857988571</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>7.070010819616638</v>
+        <v>7.07001082003846</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>7.207611040873132</v>
+        <v>7.20761104129147</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>7.34626897159677</v>
+        <v>7.346268972011081</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>7.485921254331569</v>
+        <v>7.485921254741715</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>7.626502833833584</v>
+        <v>7.626502834238888</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>7.767947074171011</v>
+        <v>7.767947074570929</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>7.910185882808887</v>
+        <v>7.910185883203149</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>8.053149841476072</v>
+        <v>8.053149841863998</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>8.196768343563159</v>
+        <v>8.196768343945021</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>8.340969737799362</v>
+        <v>8.340969738174072</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>8.485681477901878</v>
+        <v>8.485681478269301</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>8.630830277883277</v>
+        <v>8.630830278243142</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>8.776342272669634</v>
+        <v>8.776342273021532</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>8.922143183659808</v>
+        <v>8.922143184003195</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>9.068158488822718</v>
+        <v>9.068158489157053</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>9.214313596923914</v>
+        <v>9.214313597249468</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>9.360534025434118</v>
+        <v>9.360534025750484</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>9.506745581663058</v>
+        <v>9.506745581969284</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>9.652874546635546</v>
+        <v>9.652874546932036</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>9.798847861216302</v>
+        <v>9.798847861502653</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>9.944593313969506</v>
+        <v>9.944593314245445</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>10.09003973022884</v>
+        <v>10.09003973049396</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>10.23511716183523</v>
+        <v>10.23511716208966</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>10.3797570770033</v>
+        <v>10.37975707724596</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>10.52389254974794</v>
+        <v>10.52389254998033</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>10.66745844832717</v>
+        <v>10.66745844854779</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>10.81039162211148</v>
+        <v>10.81039162232032</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>10.95263108634043</v>
+        <v>10.95263108653804</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>11.09411820418197</v>
+        <v>11.0941182043678</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>11.23479686552988</v>
+        <v>11.23479686570448</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>11.37461366200538</v>
+        <v>11.37461366216754</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>11.51351805757412</v>
+        <v>11.51351805772504</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>11.65146255427849</v>
+        <v>11.65146255441804</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>11.78840285253115</v>
+        <v>11.78840285265892</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>11.92429800545833</v>
+        <v>11.9242980055746</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>12.05911056681006</v>
+        <v>12.0591105669151</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>12.19280673194151</v>
+        <v>12.19280673203518</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>12.3253564714121</v>
+        <v>12.32535647149481</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>12.45673365677649</v>
+        <v>12.45673365684823</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>12.58691617813578</v>
+        <v>12.58691617819724</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>12.71588605308614</v>
+        <v>12.71588605313664</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>12.84362952668398</v>
+        <v>12.843629526725</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>12.97013716212651</v>
+        <v>12.97013716215725</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>13.09540392181952</v>
+        <v>13.09540392184065</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>13.21942923859528</v>
+        <v>13.2194292386072</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>13.34221707683647</v>
+        <v>13.3422170768396</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>13.4637759832998</v>
+        <v>13.46377598329496</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>13.58411912750232</v>
+        <v>13.58411912748909</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>13.70326433151613</v>
+        <v>13.70326433149506</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>13.82123408910927</v>
+        <v>13.82123408908116</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>13.93805557415866</v>
+        <v>13.93805557412325</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>14.05376063833067</v>
+        <v>14.05376063828973</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>14.16838579806322</v>
+        <v>14.16838579801579</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>14.2819722108793</v>
+        <v>14.28197221082728</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>14.39456564116744</v>
+        <v>14.39456564110961</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>14.50621641553144</v>
+        <v>14.50621641547011</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>14.61697936789999</v>
+        <v>14.61697936783447</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>14.72691377459344</v>
+        <v>14.72691377452456</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>14.83608327959098</v>
+        <v>14.83608327951982</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>14.94455581027738</v>
+        <v>14.9445558102038</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>15.05240348396196</v>
+        <v>15.05240348388678</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>15.15970250552827</v>
+        <v>15.15970250545217</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>15.26653305657247</v>
+        <v>15.26653305649613</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>15.3729791764222</v>
+        <v>15.3729791763456</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>15.47912863546811</v>
+        <v>15.4791286353925</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>15.58507280125765</v>
+        <v>15.58507280118329</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>15.69090649781291</v>
+        <v>15.6909064977402</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>15.79672785867436</v>
+        <v>15.79672785860384</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>15.90263817417896</v>
+        <v>15.90263817411201</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>16.00874173350348</v>
+        <v>16.00874173343954</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>16.11514566201163</v>
+        <v>16.11514566195206</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>16.22195975446979</v>
+        <v>16.22195975441432</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>16.32929630469518</v>
+        <v>16.32929630464517</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>16.43726993220896</v>
+        <v>16.43726993216467</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>16.54599740648298</v>
+        <v>16.54599740644497</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>16.65559746935799</v>
+        <v>16.65559746932652</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>16.76619065622888</v>
+        <v>16.76619065620449</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>16.87789911658045</v>
+        <v>16.8778991165637</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>16.99084643445468</v>
+        <v>16.9908464344461</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>17.10515744942983</v>
+        <v>17.10515744942996</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>17.22095807869351</v>
+        <v>17.22095807870236</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>17.33837514075654</v>
+        <v>17.33837514077492</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>17.45753618136981</v>
+        <v>17.45753618139745</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>17.57856930218931</v>
+        <v>17.57856930222729</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>17.70160299269226</v>
+        <v>17.70160299274113</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>17.82676596588478</v>
+        <v>17.82676596594426</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>17.95418699826172</v>
+        <v>17.9541869983321</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>18.08399477450127</v>
+        <v>18.08399477458308</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>18.21631773736155</v>
+        <v>18.2163177374556</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>18.35128394317146</v>
+        <v>18.35128394327694</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>18.4890209233493</v>
+        <v>18.48902092346702</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>18.62965555232452</v>
+        <v>18.62965555245503</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>18.77331392220775</v>
+        <v>18.77331392235023</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>18.9201212245457</v>
+        <v>18.92012122470178</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>19.07020163946692</v>
+        <v>19.07020163963498</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>19.223678232481</v>
+        <v>19.22367823266266</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>19.38067285919573</v>
+        <v>19.38067285939072</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>19.54130607815985</v>
+        <v>19.5413060783679</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>19.70570146925139</v>
+        <v>19.70570146947226</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>19.87396846145862</v>
+        <v>19.87396846169363</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>20.0462272309915</v>
+        <v>20.04622723123929</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>20.22259244756293</v>
+        <v>20.22259244782433</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>20.40317717580547</v>
+        <v>20.40317717608073</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>20.5880928399289</v>
+        <v>20.58809284021695</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>20.77744919726998</v>
+        <v>20.77744919757081</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>20.97135432072534</v>
+        <v>20.97135432104031</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>21.16991459004517</v>
+        <v>21.16991459037319</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>21.37323469193868</v>
+        <v>21.37323469227948</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>21.58141762890874</v>
+        <v>21.58141762926231</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>21.79456473672584</v>
+        <v>21.79456473709219</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>22.01277571043017</v>
+        <v>22.01277571080902</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>22.2361486386996</v>
+        <v>22.23614863909068</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>22.46478004644115</v>
+        <v>22.464780046845</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>22.69876494542584</v>
+        <v>22.69876494584137</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>22.93819689275675</v>
+        <v>22.93819689318505</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>23.18316805696823</v>
+        <v>23.18316805740684</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>23.43376929154464</v>
+        <v>23.43376929199547</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>23.6900902155507</v>
+        <v>23.69009021601158</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>23.95221930121336</v>
+        <v>23.95221930168618</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>24.22024396809072</v>
+        <v>24.22024396857358</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>24.49425068363515</v>
+        <v>24.49425068412831</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>24.77432506976294</v>
+        <v>24.77432507026695</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>25.06055201525558</v>
+        <v>25.060552015768</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>25.35301579356269</v>
+        <v>25.35301579408513</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>25.65180018578259</v>
+        <v>25.65180018631451</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>25.95698860845795</v>
+        <v>25.95698860899853</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>26.26866424589868</v>
+        <v>26.26866424644683</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>26.5869101866517</v>
+        <v>26.58691018720877</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>26.9118095638458</v>
+        <v>26.91180956441098</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>27.24344569905941</v>
+        <v>27.24344569963133</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>27.58190224934922</v>
+        <v>27.58190224992869</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>27.92726335715787</v>
+        <v>27.92726335774407</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>28.27961380272404</v>
+        <v>28.27961380331642</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>28.63903915867521</v>
+        <v>28.63903915927403</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>29.00562594647872</v>
+        <v>29.00562594708263</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>29.3794617944062</v>
+        <v>29.37946179501601</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>29.76063559666661</v>
+        <v>29.76063559728095</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>30.14923767342095</v>
+        <v>30.14923767404062</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>30.54535993130327</v>
+        <v>30.54535993192691</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>30.94909602413122</v>
+        <v>30.94909602475882</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>31.36054151351227</v>
+        <v>31.36054151414356</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>31.77979402896505</v>
+        <v>31.77979402959921</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>32.20695342728904</v>
+        <v>32.20695342792632</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>32.64212195081436</v>
+        <v>32.64212195145475</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>33.08540438423405</v>
+        <v>33.0854043848762</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>33.53690820968804</v>
+        <v>33.53690821033221</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>33.99674375978805</v>
+        <v>33.99674376043368</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>34.46502436822783</v>
+        <v>34.46502436887437</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>34.94186651770384</v>
+        <v>34.94186651835128</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>35.42738998478612</v>
+        <v>35.42738998543444</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>35.92171798140066</v>
+        <v>35.92171798204878</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>36.42497729263488</v>
+        <v>36.42497729328333</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>36.93729841049952</v>
+        <v>36.9372984111472</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>37.45881566330449</v>
+        <v>37.45881566395192</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>37.98966734031646</v>
+        <v>37.98966734096201</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>38.52999581136375</v>
+        <v>38.52999581200797</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>39.07994764097354</v>
+        <v>39.07994764161585</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>39.63967369676253</v>
+        <v>39.63967369740401</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>40.20932925162219</v>
+        <v>40.20932925226012</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>40.78907407935634</v>
+        <v>40.78907407999343</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>41.37907254343213</v>
+        <v>41.37907254406401</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>41.97949367829032</v>
+        <v>41.9794936789197</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>42.59051126299622</v>
+        <v>42.59051126362254</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>43.2123038866625</v>
+        <v>43.21230388728468</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>43.84505500524258</v>
+        <v>43.84505500586059</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>44.4889529892929</v>
+        <v>44.48895298990728</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>45.1441911621665</v>
+        <v>45.1441911627756</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>45.81096782823207</v>
+        <v>45.81096782883643</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>46.48948629056006</v>
+        <v>46.48948629115967</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>47.17995485762385</v>
+        <v>47.17995485821763</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>47.88258683847236</v>
+        <v>47.88258683905973</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>48.5976005258228</v>
+        <v>48.59760052640485</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>49.32521916657225</v>
+        <v>49.32521916714844</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>50.06567091911</v>
+        <v>50.06567091967923</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>50.81918879689203</v>
+        <v>50.81918879745319</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>51.58601059765883</v>
+        <v>51.58601059821465</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>52.36637881772123</v>
+        <v>52.36637881826898</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>53.16054055066824</v>
+        <v>53.16054055120845</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>53.96874736988926</v>
+        <v>53.96874737042194</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>54.79125519426009</v>
+        <v>54.7912551947847</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>55.62832413635171</v>
+        <v>55.6283241368677</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>56.48021833252255</v>
+        <v>56.48021833302936</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>57.34720575417812</v>
+        <v>57.3472057546774</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>58.2295579996151</v>
+        <v>58.22955800010415</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>59.127550065713</v>
+        <v>59.12755006619233</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>60.04146009885015</v>
+        <v>60.04146009932144</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>60.97156912436442</v>
+        <v>60.97156912482441</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>61.91816075389808</v>
+        <v>61.91816075434676</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>62.88152086998437</v>
+        <v>62.88152087042502</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>63.86193728727805</v>
+        <v>63.86193728770579</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>64.85969938971154</v>
+        <v>64.85969939012857</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>65.87509774310507</v>
+        <v>65.87509774351196</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>66.90842368257212</v>
+        <v>66.90842368296614</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>67.95996887419474</v>
+        <v>67.95996887457649</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>69.03002485045836</v>
+        <v>69.03002485082837</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>70.11888251901087</v>
+        <v>70.11888251936865</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>71.2268316442634</v>
+        <v>71.22683164460844</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>72.35416030145382</v>
+        <v>72.35416030178504</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>726.7075316929079</v>
+        <v>726.7075316960519</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>738.2451158542996</v>
+        <v>738.2451158573023</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>749.9826921746164</v>
+        <v>749.9826921774836</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>761.9229825471747</v>
+        <v>761.9229825498958</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>774.0686610106899</v>
+        <v>774.0686610132599</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>786.4223466776322</v>
+        <v>786.4223466800623</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>798.9865963845056</v>
+        <v>798.9865963867747</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>811.7638970660396</v>
+        <v>811.7638970681376</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>824.7566578567892</v>
+        <v>824.7566578587268</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>837.9672019265201</v>
+        <v>837.9672019283196</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>851.3977580547786</v>
+        <v>851.3977580563864</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>865.0504519520017</v>
+        <v>865.0504519534397</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>878.9272973375603</v>
+        <v>878.927297338818</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>893.0301867847298</v>
+        <v>893.0301867857972</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>907.3608823447087</v>
+        <v>907.3608823456074</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>921.921005964943</v>
+        <v>921.9210059656413</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>936.7120297160662</v>
+        <v>936.7120297165535</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>951.7352658460278</v>
+        <v>951.735265846326</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>966.9918566816762</v>
+        <v>966.9918566817746</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>982.4827643974169</v>
+        <v>982.4827643972949</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>998.2087606767673</v>
+        <v>998.2087606764139</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1014.17041629012</v>
+        <v>1014.170416289568</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1030.368090619068</v>
+        <v>1030.368090618284</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1046.801921154402</v>
+        <v>1046.801921153367</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1063.471813001441</v>
+        <v>1063.471813000186</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1080.377428426416</v>
+        <v>1080.377428424909</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1097.51817647939</v>
+        <v>1097.518176477631</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1114.893202732501</v>
+        <v>1114.893202730459</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1132.50137917362</v>
+        <v>1132.501379171326</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1150.341294297645</v>
+        <v>1150.341294295109</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1168.411243438901</v>
+        <v>1168.41124343606</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1186.70921939155</v>
+        <v>1186.709219388413</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1205.232903364585</v>
+        <v>1205.232903361175</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1223.979656320996</v>
+        <v>1223.97965631728</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1242.946510751835</v>
+        <v>1242.946510747812</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1262.130162936404</v>
+        <v>1262.130162932064</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1281.526965741298</v>
+        <v>1281.52696573663</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1301.132922013688</v>
+        <v>1301.132922008724</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1320.943678620966</v>
+        <v>1320.943678615619</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1340.954521192918</v>
+        <v>1340.954521187265</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1361.160369621781</v>
+        <v>1361.160369615734</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1381.555774374044</v>
+        <v>1381.555774367678</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1402.134913670205</v>
+        <v>1402.134913663445</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1422.891591584021</v>
+        <v>1422.891591576899</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1443.819237118016</v>
+        <v>1443.819237110509</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1464.910904302618</v>
+        <v>1464.910904294748</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1486.15927337369</v>
+        <v>1486.159273365372</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1507.556653072228</v>
+        <v>1507.556653063514</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1529.094984116464</v>
+        <v>1529.094984107376</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1550.765843886292</v>
+        <v>1550.765843876754</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1572.56045236281</v>
+        <v>1572.560452352843</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1594.469679358222</v>
+        <v>1594.469679347838</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1616.484053070994</v>
+        <v>1616.484053060159</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1638.593769994375</v>
+        <v>1638.593769983111</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1660.788706203786</v>
+        <v>1660.788706192038</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1611.503366540744</v>
+        <v>1611.503366529064</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1632.887634002369</v>
+        <v>1632.887633990258</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1654.322704618209</v>
+        <v>1654.322704605666</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1675.797792752378</v>
+        <v>1675.797792739402</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1697.301880316449</v>
+        <v>1697.301880302979</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1718.82373572491</v>
+        <v>1718.823735710988</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1740.35193419794</v>
+        <v>1740.351934183584</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1761.874879388135</v>
+        <v>1761.874879373265</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1783.380826307074</v>
+        <v>1783.380826291771</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1804.857905521003</v>
+        <v>1804.857905505268</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1826.294148573123</v>
+        <v>1826.294148556914</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1847.677514592209</v>
+        <v>1847.677514575567</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1868.995918031682</v>
+        <v>1868.995918014525</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1890.237257484344</v>
+        <v>1890.237257466754</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1911.389445508476</v>
+        <v>1911.389445490494</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1929.679988594291</v>
+        <v>1929.679988575821</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1950.587912736519</v>
+        <v>1950.587912717678</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1971.370997412247</v>
+        <v>1971.370997392995</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1992.017543683822</v>
+        <v>1992.017543664097</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2012.516027976792</v>
+        <v>2012.516027956717</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2032.855136262228</v>
+        <v>2032.8551362417</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2053.023798649166</v>
+        <v>2053.023798628351</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2073.01122428367</v>
+        <v>2073.011224262505</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2092.806936448227</v>
+        <v>2092.80693642667</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2112.400807751332</v>
+        <v>2112.400807729507</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3181.995574974688</v>
+        <v>3181.99557494165</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3210.596715423151</v>
+        <v>3210.596715389775</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3238.854881592837</v>
+        <v>3238.854881559031</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3266.757564648967</v>
+        <v>3266.757564614915</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3294.293035929424</v>
+        <v>3294.293035895127</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3321.450396718241</v>
+        <v>3321.450396683666</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3348.219626959235</v>
+        <v>3348.219626924599</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3374.591632741266</v>
+        <v>3374.591632706506</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3400.558292386272</v>
+        <v>3400.558292351604</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3426.112500978198</v>
+        <v>3426.112500943498</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3248.463449428266</v>
+        <v>3248.463449395806</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3271.723703092112</v>
+        <v>3271.723703059796</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3294.58181375439</v>
+        <v>3294.581813722362</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3317.035306564323</v>
+        <v>3317.035306532699</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3339.082846053028</v>
+        <v>3339.082846021865</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3360.724266188229</v>
+        <v>3360.724266157671</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3381.960597986667</v>
+        <v>3381.960597956773</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3402.794094555635</v>
+        <v>3402.79409452652</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3423.228253454002</v>
+        <v>3423.228253425781</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3443.267836248615</v>
+        <v>3443.267836221462</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2146.246619432164</v>
+        <v>2146.246619416014</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2158.189681083656</v>
+        <v>2158.189681068347</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2169.901840073624</v>
+        <v>2169.901840059155</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2181.389265306215</v>
+        <v>2181.38926529273</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2192.658941335905</v>
+        <v>2192.658941323547</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2203.71866869351</v>
+        <v>2203.718668682261</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2214.57706203053</v>
+        <v>2214.577062020551</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2225.243546011259</v>
+        <v>2225.243546002656</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2235.728348900253</v>
+        <v>2235.728348893099</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2246.042493772531</v>
+        <v>2246.042493767023</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2423.332249273536</v>
+        <v>2423.332249269503</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2434.08271534285</v>
+        <v>2434.082715340738</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2444.690388384893</v>
+        <v>2444.690388384817</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2455.170374984476</v>
+        <v>2455.170374986628</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2465.538547514347</v>
+        <v>2465.538547518959</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2475.811517891059</v>
+        <v>2475.811517898129</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2486.006608261055</v>
+        <v>2486.006608270777</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2496.141818533632</v>
+        <v>2496.141818546197</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2506.235790679194</v>
+        <v>2506.235790694641</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2516.307769705925</v>
+        <v>2516.307769724408</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2526.377561236903</v>
+        <v>2526.377561258652</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2536.465485598317</v>
+        <v>2536.465485623447</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2546.592328347167</v>
+        <v>2546.592328375794</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2556.779287153636</v>
+        <v>2556.779287185875</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2567.047914973649</v>
+        <v>2567.047915009731</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2577.420059445923</v>
+        <v>2577.420059485924</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2587.917798455973</v>
+        <v>2587.917798499969</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2598.563371827765</v>
+        <v>2598.563371876066</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2609.379109110368</v>
+        <v>2609.379109162894</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2620.387353445317</v>
+        <v>2620.387353502186</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2631.610381523563</v>
+        <v>2631.610381585042</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2643.070319654524</v>
+        <v>2643.070319720692</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2654.789056005682</v>
+        <v>2654.789056076537</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2666.788149086116</v>
+        <v>2666.788149161659</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2679.088732594703</v>
+        <v>2679.088732675241</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2691.71141677166</v>
+        <v>2691.711416857001</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2704.676186447128</v>
+        <v>2704.676186537426</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2718.002296005217</v>
+        <v>2718.002296100549</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2731.708161541488</v>
+        <v>2731.708161641815</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2745.811250528919</v>
+        <v>2745.811250634203</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2760.327969359778</v>
+        <v>2760.32796946998</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2775.273549187955</v>
+        <v>2775.273549303114</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2790.661930544309</v>
+        <v>2790.661930664233</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2806.505647257257</v>
+        <v>2806.505647382023</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2822.815710266045</v>
+        <v>2822.815710395306</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2839.601491972087</v>
+        <v>2839.60149210592</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2856.870611835132</v>
+        <v>2856.870611973346</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2874.628823962354</v>
+        <v>2874.628824104641</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2892.879907514918</v>
+        <v>2892.879907661124</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2911.625560787619</v>
+        <v>2911.625560937668</v>
       </c>
     </row>
   </sheetData>
